--- a/reconexiones.xlsx
+++ b/reconexiones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JEFFERSON\system_cort_recon\Backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JEFFERSON\Downloads\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBFE997-24AE-435E-9624-286B4E3E6763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C031398-2718-4652-BB5A-326CEE62D705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FEC1CEFE-428D-4480-B2C8-DD51C6A5E488}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="274">
   <si>
     <t>C17RA005546</t>
   </si>
@@ -114,9 +114,6 @@
     <t>C18RA045827</t>
   </si>
   <si>
-    <t>C17RA032072</t>
-  </si>
-  <si>
     <t>C17RA005716</t>
   </si>
   <si>
@@ -348,18 +345,12 @@
     <t>C17RA029690</t>
   </si>
   <si>
-    <t>C18RA025047</t>
-  </si>
-  <si>
     <t>C17RA008162</t>
   </si>
   <si>
     <t>C17RA005190</t>
   </si>
   <si>
-    <t>C17RA032899</t>
-  </si>
-  <si>
     <t>C17RA008393</t>
   </si>
   <si>
@@ -384,9 +375,6 @@
     <t>C18RA025287</t>
   </si>
   <si>
-    <t>C18RA031061</t>
-  </si>
-  <si>
     <t>C18RA025310</t>
   </si>
   <si>
@@ -396,9 +384,6 @@
     <t>C18RA025553</t>
   </si>
   <si>
-    <t>C18RA025247</t>
-  </si>
-  <si>
     <t>C18RA045900</t>
   </si>
   <si>
@@ -459,9 +444,6 @@
     <t>C17RA032830</t>
   </si>
   <si>
-    <t>C17RA030647</t>
-  </si>
-  <si>
     <t>ID_CUENTA</t>
   </si>
   <si>
@@ -498,41 +480,380 @@
     <t>C17RA032689</t>
   </si>
   <si>
-    <t>C17RA032107</t>
-  </si>
-  <si>
-    <t>C17RA007576</t>
-  </si>
-  <si>
-    <t>C17RA007291</t>
-  </si>
-  <si>
-    <t>C17RA030844</t>
-  </si>
-  <si>
-    <t>C17RA008974</t>
-  </si>
-  <si>
-    <t>C17RA030247</t>
-  </si>
-  <si>
-    <t>D21AA001206</t>
-  </si>
-  <si>
-    <t>C17RA03432</t>
-  </si>
-  <si>
-    <t>C17RA025119</t>
+    <t>C17RA005440</t>
+  </si>
+  <si>
+    <t>C17RA032046</t>
+  </si>
+  <si>
+    <t>C17RA005035</t>
+  </si>
+  <si>
+    <t>C17RA005606</t>
+  </si>
+  <si>
+    <t>C17RA032250</t>
+  </si>
+  <si>
+    <t>C17RA008682</t>
+  </si>
+  <si>
+    <t>C17RA032102</t>
+  </si>
+  <si>
+    <t>C17RA005657</t>
+  </si>
+  <si>
+    <t>C17RA029818</t>
+  </si>
+  <si>
+    <t>C17RA032004</t>
+  </si>
+  <si>
+    <t>C17RA005601</t>
+  </si>
+  <si>
+    <t>C17RA005023</t>
+  </si>
+  <si>
+    <t>D21AA007676</t>
+  </si>
+  <si>
+    <t>C17RA032530</t>
+  </si>
+  <si>
+    <t>C17RA007365</t>
+  </si>
+  <si>
+    <t>C17RA032711</t>
+  </si>
+  <si>
+    <t>C17RA005404</t>
+  </si>
+  <si>
+    <t>C17RA030765</t>
+  </si>
+  <si>
+    <t>B21BA0747205</t>
+  </si>
+  <si>
+    <t>C17RA032164</t>
+  </si>
+  <si>
+    <t>C17RA032170</t>
+  </si>
+  <si>
+    <t>C17RA005916</t>
+  </si>
+  <si>
+    <t>C17RA032743</t>
+  </si>
+  <si>
+    <t>C17RA007611</t>
+  </si>
+  <si>
+    <t>C17RA005345</t>
+  </si>
+  <si>
+    <t>C18RA025138</t>
+  </si>
+  <si>
+    <t>26/8/202</t>
+  </si>
+  <si>
+    <t>C17RA007885</t>
+  </si>
+  <si>
+    <t>C17RA008165</t>
+  </si>
+  <si>
+    <t>C18RA031113</t>
+  </si>
+  <si>
+    <t>C17RA029801</t>
+  </si>
+  <si>
+    <t>C17RA030436</t>
+  </si>
+  <si>
+    <t>C17RA032893</t>
+  </si>
+  <si>
+    <t>C17RA005455</t>
+  </si>
+  <si>
+    <t>C17RA008283</t>
+  </si>
+  <si>
+    <t>C17RA008922</t>
+  </si>
+  <si>
+    <t>C17RA032067</t>
+  </si>
+  <si>
+    <t>C17RA007122</t>
+  </si>
+  <si>
+    <t>C17RA007858</t>
+  </si>
+  <si>
+    <t>C18RA045624</t>
+  </si>
+  <si>
+    <t>C18RA025005</t>
+  </si>
+  <si>
+    <t>C17RA007409</t>
+  </si>
+  <si>
+    <t>C17RA008108</t>
+  </si>
+  <si>
+    <t>C17RA007848</t>
+  </si>
+  <si>
+    <t>C17RA032675</t>
+  </si>
+  <si>
+    <t>C17RA007500</t>
+  </si>
+  <si>
+    <t>C17RA032273</t>
+  </si>
+  <si>
+    <t>C17RA032477</t>
+  </si>
+  <si>
+    <t>C17RA008935</t>
+  </si>
+  <si>
+    <t>C17RA014988</t>
+  </si>
+  <si>
+    <t>C17RA032974</t>
+  </si>
+  <si>
+    <t>C17RA007227</t>
+  </si>
+  <si>
+    <t>C17RA005766</t>
+  </si>
+  <si>
+    <t>C17RA032612</t>
+  </si>
+  <si>
+    <t>C2215046376</t>
+  </si>
+  <si>
+    <t>C17RA008423</t>
+  </si>
+  <si>
+    <t>C18RA031452</t>
+  </si>
+  <si>
+    <t>C17RA032508</t>
+  </si>
+  <si>
+    <t>C18RA031181</t>
+  </si>
+  <si>
+    <t>C17RA007039</t>
+  </si>
+  <si>
+    <t>C18RA031272</t>
+  </si>
+  <si>
+    <t>C17RA008394</t>
+  </si>
+  <si>
+    <t>C18RA045734</t>
+  </si>
+  <si>
+    <t>C18RA045641</t>
+  </si>
+  <si>
+    <t>C18LA214372</t>
+  </si>
+  <si>
+    <t>C18RA025322</t>
+  </si>
+  <si>
+    <t>C18RA045623</t>
+  </si>
+  <si>
+    <t>C17RA008083</t>
+  </si>
+  <si>
+    <t>C17RA008764</t>
+  </si>
+  <si>
+    <t>C18RA025571</t>
+  </si>
+  <si>
+    <t>C17RA007356</t>
+  </si>
+  <si>
+    <t>C17RA007152</t>
+  </si>
+  <si>
+    <t>C18RA031283</t>
+  </si>
+  <si>
+    <t>C17RA008763</t>
+  </si>
+  <si>
+    <t>C18RA025556</t>
+  </si>
+  <si>
+    <t>C17RA007456</t>
+  </si>
+  <si>
+    <t>C18RA024938</t>
+  </si>
+  <si>
+    <t>C18RA031407</t>
+  </si>
+  <si>
+    <t>C17RA007750</t>
+  </si>
+  <si>
+    <t>C18RA025558</t>
+  </si>
+  <si>
+    <t>C17RA007649</t>
+  </si>
+  <si>
+    <t>C17RA014736</t>
+  </si>
+  <si>
+    <t>C17RA007453</t>
+  </si>
+  <si>
+    <t>C17RA007045</t>
+  </si>
+  <si>
+    <t>C17RA008476</t>
+  </si>
+  <si>
+    <t>C18RA025369</t>
+  </si>
+  <si>
+    <t>C18RA025403</t>
+  </si>
+  <si>
+    <t>C18RA025378</t>
+  </si>
+  <si>
+    <t>C18RA030991</t>
+  </si>
+  <si>
+    <t>C17RA030511</t>
+  </si>
+  <si>
+    <t>C17RA005222</t>
+  </si>
+  <si>
+    <t>C17RA008723</t>
+  </si>
+  <si>
+    <t>C17RA008340</t>
+  </si>
+  <si>
+    <t>C17RA029571</t>
+  </si>
+  <si>
+    <t>D21AA008514</t>
+  </si>
+  <si>
+    <t>D21AA008517</t>
+  </si>
+  <si>
+    <t>C17RA030461</t>
+  </si>
+  <si>
+    <t>C18RA031253</t>
+  </si>
+  <si>
+    <t>C18RA031366</t>
+  </si>
+  <si>
+    <t>C17RA005409</t>
+  </si>
+  <si>
+    <t>C17RA005468</t>
+  </si>
+  <si>
+    <t>C17RA005431</t>
+  </si>
+  <si>
+    <t>C17RA005269</t>
+  </si>
+  <si>
+    <t>C17RA030718</t>
+  </si>
+  <si>
+    <t>C17RA005104</t>
+  </si>
+  <si>
+    <t>C17RA032674</t>
+  </si>
+  <si>
+    <t>C17RA005487</t>
+  </si>
+  <si>
+    <t>B21BA0728529</t>
+  </si>
+  <si>
+    <t>C17RA005624</t>
+  </si>
+  <si>
+    <t>C17RA005816</t>
+  </si>
+  <si>
+    <t>C18RA045562</t>
+  </si>
+  <si>
+    <t>C17RA005659</t>
+  </si>
+  <si>
+    <t>D21AA008803</t>
+  </si>
+  <si>
+    <t>C17RA008234</t>
+  </si>
+  <si>
+    <t>C17RA007190</t>
+  </si>
+  <si>
+    <t>C17RA030162</t>
+  </si>
+  <si>
+    <t>C18RA025159</t>
+  </si>
+  <si>
+    <t>C17RA014043</t>
+  </si>
+  <si>
+    <t>C18RA025417</t>
+  </si>
+  <si>
+    <t>D21AA007674</t>
+  </si>
+  <si>
+    <t>C18RA025516</t>
+  </si>
+  <si>
+    <t>C17RA029651</t>
+  </si>
+  <si>
+    <t>C17RA005385</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,32 +869,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -585,9 +887,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -597,21 +898,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -924,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F63DEF-8F3C-46F7-9343-804CE782A2A1}">
-  <dimension ref="A1:G417"/>
+  <dimension ref="A1:G548"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="E235" sqref="E235"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -942,13 +1234,13 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -956,13 +1248,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="2">
-        <v>4547</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2381362551</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="B2" s="3">
+        <v>10432</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="4">
         <v>45867</v>
       </c>
       <c r="E2" s="1"/>
@@ -971,14 +1263,14 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
-      <c r="B3" s="2">
-        <v>10226</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>45867</v>
+      <c r="B3" s="3">
+        <v>120140</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45868</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -986,14 +1278,14 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
-      <c r="B4" s="2">
-        <v>10432</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="3">
-        <v>45867</v>
+      <c r="B4" s="3">
+        <v>11071</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45873</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1001,13 +1293,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
-      <c r="B5" s="2">
-        <v>10558</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="B5" s="3">
+        <v>120056</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="4">
         <v>45867</v>
       </c>
       <c r="E5" s="1"/>
@@ -1016,104 +1308,68 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
-      <c r="B6" s="2">
-        <v>10803</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="3">
-        <v>45867</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
-      <c r="B7" s="2">
-        <v>10826</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3">
-        <v>45867</v>
-      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
-      <c r="B8" s="2">
-        <v>11129</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="3">
-        <v>45867</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
-      <c r="B9" s="2">
-        <v>11162</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3">
-        <v>45867</v>
-      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
-      <c r="B10" s="2">
-        <v>120055</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" s="3">
-        <v>45867</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
-      <c r="B11" s="2">
-        <v>120056</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D11" s="3">
-        <v>45867</v>
-      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
-      <c r="B12" s="2">
-        <v>686</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="3">
-        <v>45868</v>
+      <c r="B12" s="3">
+        <v>10687</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2215004617</v>
+      </c>
+      <c r="D12" s="4">
+        <v>45876</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1121,14 +1377,14 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
-      <c r="B13" s="2">
-        <v>3821</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" s="3">
-        <v>45868</v>
+      <c r="B13" s="3">
+        <v>10803</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="4">
+        <v>45870</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1136,14 +1392,14 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
-      <c r="B14" s="2">
-        <v>10023</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="3">
-        <v>45868</v>
+      <c r="B14" s="3">
+        <v>10014</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="4">
+        <v>45889</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1151,13 +1407,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="B15" s="2">
-        <v>10152</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="B15" s="3">
+        <v>3821</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="4">
         <v>45868</v>
       </c>
       <c r="E15" s="1"/>
@@ -1166,14 +1422,14 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
-      <c r="B16" s="2">
-        <v>10627</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="3">
-        <v>45868</v>
+      <c r="B16" s="3">
+        <v>11129</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="4">
+        <v>45867</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1181,14 +1437,14 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
-      <c r="B17" s="2">
-        <v>10672</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="3">
-        <v>45868</v>
+      <c r="B17" s="3">
+        <v>10558</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="4">
+        <v>45867</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1196,181 +1452,145 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
-      <c r="B18" s="2">
-        <v>10745</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="3">
-        <v>45868</v>
+      <c r="B18" s="3">
+        <v>120055</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="4">
+        <v>45867</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
-      <c r="B19" s="2">
-        <v>10846</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="3">
-        <v>45868</v>
+      <c r="B19" s="3">
+        <v>3397</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="4">
+        <v>45870</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
-      <c r="B20" s="2">
-        <v>10856</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="3">
-        <v>45868</v>
+      <c r="B20" s="3">
+        <v>10177</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="4">
+        <v>45870</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
-      <c r="B21" s="2">
-        <v>10857</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="3">
-        <v>45868</v>
+      <c r="B21" s="3">
+        <v>10313</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>45875</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
-      <c r="B22" s="2">
-        <v>10977</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="3">
-        <v>45868</v>
+      <c r="B22" s="3">
+        <v>10226</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>45867</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
-      <c r="B23" s="2">
-        <v>60048</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="3">
-        <v>45868</v>
+      <c r="B23" s="3">
+        <v>10985</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="4">
+        <v>45882</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
-      <c r="B24" s="2">
-        <v>120057</v>
-      </c>
-      <c r="C24" s="2">
-        <v>2215003756</v>
-      </c>
-      <c r="D24" s="3">
-        <v>45868</v>
-      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
-      <c r="B25" s="2">
-        <v>120140</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D25" s="3">
-        <v>45868</v>
-      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
-      <c r="B26" s="4">
-        <v>3337</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="3">
-        <v>45869</v>
-      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
-      <c r="B27" s="2">
-        <v>3657</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="3">
-        <v>45869</v>
-      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
-      <c r="B28" s="2">
-        <v>10951</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="3">
-        <v>45869</v>
-      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
-      <c r="B29" s="2">
-        <v>11151</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="3">
-        <v>45869</v>
-      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
-      <c r="B30" s="2">
-        <v>11197</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="B30" s="3">
+        <v>3657</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="4">
         <v>45869</v>
       </c>
       <c r="E30" s="1"/>
@@ -1378,265 +1598,265 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
-      <c r="B31" s="2">
-        <v>20444</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="3">
-        <v>45869</v>
+      <c r="B31" s="3">
+        <v>120009</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="4">
+        <v>45870</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
-      <c r="B32" s="2">
-        <v>10081</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="3">
-        <v>45870</v>
+      <c r="B32" s="3">
+        <v>10880</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="4">
+        <v>45881</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
-      <c r="B33" s="2">
-        <v>10178</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="3">
-        <v>45870</v>
+      <c r="B33" s="3">
+        <v>11157</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" s="4">
+        <v>45895</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
-      <c r="B34" s="2">
-        <v>10390</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="3">
-        <v>45870</v>
+      <c r="B34" s="3">
+        <v>11162</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="4">
+        <v>45867</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
-      <c r="B35" s="2">
-        <v>10499</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="3">
-        <v>45870</v>
+      <c r="B35" s="3">
+        <v>10826</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="4">
+        <v>45867</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
-      <c r="B36" s="2">
-        <v>10659</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="3">
-        <v>45870</v>
+      <c r="B36" s="3">
+        <v>4547</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2381362551</v>
+      </c>
+      <c r="D36" s="4">
+        <v>45867</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
-      <c r="B37" s="2">
-        <v>10829</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="3">
-        <v>45871</v>
+      <c r="B37" s="5">
+        <v>10390</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="6">
+        <v>45870</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
-      <c r="B38" s="2">
-        <v>11106</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="3">
-        <v>45871</v>
+      <c r="B38" s="3">
+        <v>120057</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2215003756</v>
+      </c>
+      <c r="D38" s="4">
+        <v>45868</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
-      <c r="B39" s="2">
-        <v>10083</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="3">
-        <v>45873</v>
+      <c r="B39" s="3">
+        <v>11197</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="4">
+        <v>45869</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
-      <c r="B40" s="2">
-        <v>10175</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="3">
-        <v>45873</v>
+      <c r="B40" s="3">
+        <v>10152</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="4">
+        <v>45868</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
-      <c r="B41" s="2">
-        <v>10376</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="3">
-        <v>45873</v>
+      <c r="B41" s="3">
+        <v>10303</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="4">
+        <v>45874</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
-      <c r="B42" s="2">
-        <v>10428</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="3">
-        <v>45873</v>
+      <c r="B42" s="3">
+        <v>10857</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="4">
+        <v>45868</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
-      <c r="B43" s="2">
-        <v>10442</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="3">
-        <v>45873</v>
+      <c r="B43" s="3">
+        <v>10386</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="4">
+        <v>45874</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
-      <c r="B44" s="2">
-        <v>10468</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="3">
-        <v>45873</v>
+      <c r="B44" s="3">
+        <v>10856</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="4">
+        <v>45868</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
-      <c r="B45" s="2">
-        <v>10481</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="3">
-        <v>45873</v>
+      <c r="B45" s="3">
+        <v>10977</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="4">
+        <v>45868</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
-      <c r="B46" s="2">
-        <v>10633</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="3">
-        <v>45873</v>
+      <c r="B46" s="3">
+        <v>10157</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D46" s="4">
+        <v>45870</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
-      <c r="B47" s="2">
-        <v>10685</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="3">
-        <v>45873</v>
+      <c r="B47" s="3">
+        <v>120034</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="4">
+        <v>45874</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
-      <c r="B48" s="2">
-        <v>10741</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" s="3">
-        <v>45873</v>
+      <c r="B48" s="3">
+        <v>10846</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="4">
+        <v>45868</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
-      <c r="B49" s="2">
-        <v>11037</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" s="3">
+      <c r="B49" s="3">
+        <v>10376</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="4">
         <v>45873</v>
       </c>
       <c r="E49" s="1"/>
@@ -1644,835 +1864,781 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
-      <c r="B50" s="2">
-        <v>11071</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D50" s="3">
-        <v>45873</v>
-      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
-      <c r="B51" s="2">
-        <v>50220</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" s="3">
-        <v>45873</v>
+      <c r="B51" s="3">
+        <v>10486</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" s="4">
+        <v>45869</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
-      <c r="B52" s="2">
-        <v>60006</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D52" s="3">
-        <v>45873</v>
+      <c r="B52" s="3">
+        <v>10836</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" s="4">
+        <v>45889</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
-      <c r="B53" s="2">
-        <v>120078</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53" s="3">
-        <v>45873</v>
+      <c r="B53" s="3">
+        <v>20444</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="4">
+        <v>45869</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
-      <c r="B54" s="2">
-        <v>4743</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D54" s="3">
-        <v>45874</v>
+      <c r="B54" s="3">
+        <v>10829</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="4">
+        <v>45871</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
-      <c r="B55" s="2">
-        <v>10303</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="3">
-        <v>45874</v>
+      <c r="B55" s="3">
+        <v>10023</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="4">
+        <v>45868</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
-      <c r="B56" s="2">
-        <v>10307</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D56" s="3">
-        <v>45874</v>
+      <c r="B56" s="3">
+        <v>686</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="4">
+        <v>45868</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
-      <c r="B57" s="2">
-        <v>10386</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="3">
-        <v>45874</v>
+      <c r="B57" s="3">
+        <v>10499</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="4">
+        <v>45870</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
-      <c r="B58" s="2">
-        <v>10409</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D58" s="3">
-        <v>45874</v>
-      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
-      <c r="B59" s="2">
-        <v>10411</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D59" s="3">
-        <v>45874</v>
-      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
-      <c r="B60" s="2">
-        <v>50170</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D60" s="3">
-        <v>45874</v>
+      <c r="B60" s="3">
+        <v>10712</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" s="4">
+        <v>45877</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
-      <c r="B61" s="2">
-        <v>50243</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D61" s="3">
-        <v>45874</v>
+      <c r="B61" s="3">
+        <v>10659</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="4">
+        <v>45870</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
-      <c r="B62" s="2">
-        <v>50254</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D62" s="3">
-        <v>45874</v>
+      <c r="B62" s="3">
+        <v>11151</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" s="4">
+        <v>45869</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
-      <c r="B63" s="2">
-        <v>50322</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D63" s="3">
-        <v>45874</v>
+      <c r="B63" s="3">
+        <v>10529</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D63" s="4">
+        <v>45869</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
-      <c r="B64" s="2">
-        <v>120034</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="3">
-        <v>45874</v>
+      <c r="B64" s="3">
+        <v>10741</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="4">
+        <v>45873</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
-      <c r="B65" s="2">
-        <v>10282</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D65" s="3">
-        <v>45875</v>
+      <c r="B65" s="3">
+        <v>10745</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="4">
+        <v>45869</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
-      <c r="B66" s="2">
-        <v>10313</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" s="3">
-        <v>45875</v>
+      <c r="B66" s="3">
+        <v>10170</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D66" s="4">
+        <v>45896</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
-      <c r="B67" s="2">
-        <v>10335</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D67" s="3">
-        <v>45875</v>
+      <c r="B67" s="3">
+        <v>10672</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="4">
+        <v>45868</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
-      <c r="B68" s="2">
-        <v>10496</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D68" s="3">
-        <v>45875</v>
+      <c r="B68" s="3">
+        <v>10627</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="4">
+        <v>45868</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
-      <c r="B69" s="2">
-        <v>10512</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D69" s="3">
-        <v>45875</v>
-      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
-      <c r="B70" s="2">
-        <v>11002</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D70" s="3">
-        <v>45875</v>
+      <c r="B70" s="3">
+        <v>10685</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="4">
+        <v>45873</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
-      <c r="B71" s="2">
-        <v>20145</v>
-      </c>
-      <c r="C71" s="2">
-        <v>2115004610</v>
-      </c>
-      <c r="D71" s="3">
-        <v>45875</v>
+      <c r="B71" s="3">
+        <v>60006</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="4">
+        <v>45873</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
-      <c r="B72" s="2">
-        <v>20168</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D72" s="3">
-        <v>45875</v>
+      <c r="B72" s="3">
+        <v>60048</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" s="4">
+        <v>45868</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
-      <c r="B73" s="2">
-        <v>20176</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D73" s="3">
-        <v>45875</v>
+      <c r="B73" s="3">
+        <v>10951</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D73" s="4">
+        <v>45869</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
-      <c r="B74" s="2">
-        <v>20189</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D74" s="3">
-        <v>45875</v>
+      <c r="B74" s="5">
+        <v>10232</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D74" s="4">
+        <v>45874</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
-      <c r="B75" s="2">
-        <v>20198</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D75" s="3">
-        <v>45875</v>
+      <c r="B75" s="3">
+        <v>10468</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="4">
+        <v>45873</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
-      <c r="B76" s="2">
-        <v>20679</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D76" s="3">
-        <v>45875</v>
+      <c r="B76" s="3">
+        <v>10178</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" s="4">
+        <v>45870</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
-      <c r="B77" s="2">
-        <v>20708</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D77" s="3">
-        <v>45875</v>
+      <c r="B77" s="3">
+        <v>10117</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D77" s="4">
+        <v>45873</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
-      <c r="B78" s="2">
-        <v>50101</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D78" s="3">
-        <v>45875</v>
+      <c r="B78" s="3">
+        <v>10634</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D78" s="4">
+        <v>45869</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
-      <c r="B79" s="2">
-        <v>50174</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D79" s="3">
-        <v>45875</v>
+      <c r="B79" s="3">
+        <v>10633</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" s="4">
+        <v>45873</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
-      <c r="B80" s="2">
-        <v>120155</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D80" s="3">
-        <v>45875</v>
+      <c r="B80" s="3">
+        <v>10111</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D80" s="4">
+        <v>45870</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
-      <c r="B81" s="2">
-        <v>120598</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D81" s="3">
-        <v>45875</v>
+      <c r="B81" s="3">
+        <v>10411</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D81" s="4">
+        <v>45874</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
-      <c r="B82" s="2">
-        <v>162</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D82" s="3">
-        <v>45876</v>
+      <c r="B82" s="3">
+        <v>10456</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D82" s="4">
+        <v>45869</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
-      <c r="B83" s="2">
-        <v>372</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D83" s="3">
-        <v>45876</v>
+      <c r="B83" s="3">
+        <v>10409</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" s="4">
+        <v>45874</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
-      <c r="B84" s="2">
-        <v>3840</v>
-      </c>
-      <c r="C84" s="2">
-        <v>221500467</v>
-      </c>
-      <c r="D84" s="3">
-        <v>45876</v>
+      <c r="B84" s="3">
+        <v>10408</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D84" s="4">
+        <v>45890</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
-      <c r="B85" s="2">
-        <v>10527</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D85" s="3">
-        <v>45876</v>
+      <c r="B85" s="3">
+        <v>10442</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D85" s="4">
+        <v>45873</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
-      <c r="B86" s="2">
-        <v>10583</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D86" s="3">
-        <v>45876</v>
+      <c r="B86" s="3">
+        <v>4076</v>
+      </c>
+      <c r="C86" s="3">
+        <v>22150042421</v>
+      </c>
+      <c r="D86" s="4">
+        <v>45869</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
-      <c r="B87" s="2">
-        <v>10640</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D87" s="3">
-        <v>45876</v>
+      <c r="B87" s="3">
+        <v>11065</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D87" s="4">
+        <v>45869</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
-      <c r="B88" s="2">
-        <v>10687</v>
-      </c>
-      <c r="C88" s="2">
-        <v>2215004617</v>
-      </c>
-      <c r="D88" s="3">
-        <v>45876</v>
+      <c r="B88" s="3">
+        <v>11037</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D88" s="4">
+        <v>45873</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
-      <c r="B89" s="2">
-        <v>20184</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D89" s="3">
-        <v>45876</v>
+      <c r="B89" s="3">
+        <v>120062</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D89" s="4">
+        <v>45883</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
-      <c r="B90" s="2">
-        <v>30008</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D90" s="3">
-        <v>45876</v>
+      <c r="B90" s="3">
+        <v>10583</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D90" s="4">
+        <v>45875</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
-      <c r="B91" s="2">
-        <v>50025</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D91" s="3">
-        <v>45876</v>
+      <c r="B91" s="3">
+        <v>120078</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D91" s="4">
+        <v>45873</v>
       </c>
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
-      <c r="B92" s="2">
-        <v>50152</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D92" s="3">
-        <v>45876</v>
+      <c r="B92" s="3">
+        <v>10428</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D92" s="4">
+        <v>45873</v>
       </c>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
-      <c r="B93" s="2">
-        <v>50239</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D93" s="3">
-        <v>45876</v>
+      <c r="B93" s="3">
+        <v>10307</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D93" s="4">
+        <v>45874</v>
       </c>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
-      <c r="B94" s="2">
-        <v>661</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D94" s="3">
-        <v>45877</v>
+      <c r="B94" s="3">
+        <v>10081</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D94" s="4">
+        <v>45870</v>
       </c>
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
-      <c r="B95" s="2">
-        <v>676</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D95" s="3">
-        <v>45877</v>
+      <c r="B95" s="3">
+        <v>11106</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D95" s="4">
+        <v>45871</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
-      <c r="B96" s="2">
-        <v>20510</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D96" s="3">
-        <v>45877</v>
+      <c r="B96" s="3">
+        <v>3803</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D96" s="4">
+        <v>45870</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
-      <c r="B97" s="2">
-        <v>30157</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D97" s="3">
-        <v>45877</v>
+      <c r="B97" s="3">
+        <v>120108</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D97" s="4">
+        <v>45873</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
-      <c r="B98" s="2">
-        <v>30345</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D98" s="3">
-        <v>45877</v>
+      <c r="B98" s="3">
+        <v>10813</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D98" s="4">
+        <v>45885</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
-      <c r="B99" s="2">
-        <v>30532</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D99" s="3">
-        <v>45877</v>
-      </c>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
-      <c r="B100" s="2">
-        <v>50161</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D100" s="3">
-        <v>45880</v>
-      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
-      <c r="B101" s="2">
-        <v>159</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D101" s="3">
-        <v>45881</v>
+      <c r="B101" s="3">
+        <v>10175</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D101" s="4">
+        <v>45875</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
-      <c r="B102" s="2">
-        <v>1246</v>
-      </c>
-      <c r="C102" s="2">
-        <v>17006250</v>
-      </c>
-      <c r="D102" s="3">
-        <v>45881</v>
+      <c r="B102" s="3">
+        <v>10808</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D102" s="4">
+        <v>45873</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
-      <c r="B103" s="2">
-        <v>1558</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D103" s="3">
-        <v>45881</v>
+      <c r="B103" s="3">
+        <v>10496</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D103" s="4">
+        <v>45875</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
-      <c r="B104" s="2">
-        <v>2622</v>
-      </c>
-      <c r="C104" s="2">
-        <v>17005603</v>
-      </c>
-      <c r="D104" s="3">
-        <v>45881</v>
+      <c r="B104" s="3">
+        <v>10575</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D104" s="4">
+        <v>45873</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
-      <c r="B105" s="2">
-        <v>10638</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D105" s="3">
-        <v>45881</v>
-      </c>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
-      <c r="B106" s="2">
-        <v>10880</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D106" s="3">
-        <v>45881</v>
-      </c>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
-      <c r="B107" s="2">
-        <v>20394</v>
-      </c>
-      <c r="C107" s="2">
-        <v>2215004766</v>
-      </c>
-      <c r="D107" s="3">
-        <v>45881</v>
-      </c>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
-      <c r="B108" s="2">
-        <v>30034</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D108" s="3">
-        <v>45881</v>
+      <c r="B108" s="3">
+        <v>2290</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D108" s="4">
+        <v>45876</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
-      <c r="B109" s="2">
-        <v>1015</v>
-      </c>
-      <c r="C109" s="2">
-        <v>17006392</v>
-      </c>
-      <c r="D109" s="3">
+      <c r="B109" s="3">
+        <v>2276</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D109" s="4">
         <v>45882</v>
       </c>
       <c r="E109" s="1"/>
@@ -2480,195 +2646,177 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
-      <c r="B110" s="2">
-        <v>1180</v>
-      </c>
-      <c r="C110" s="2">
-        <v>1408013656</v>
-      </c>
-      <c r="D110" s="3">
-        <v>45882</v>
+      <c r="B110" s="3">
+        <v>50220</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D110" s="4">
+        <v>45873</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
-      <c r="B111" s="2">
-        <v>2276</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D111" s="3">
-        <v>45882</v>
+      <c r="B111" s="3">
+        <v>10083</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D111" s="4">
+        <v>45873</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
-      <c r="B112" s="2">
-        <v>2356</v>
-      </c>
-      <c r="C112" s="2">
-        <v>17005289</v>
-      </c>
-      <c r="D112" s="3">
-        <v>45882</v>
+      <c r="B112" s="3">
+        <v>11002</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D112" s="4">
+        <v>45875</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
-      <c r="B113" s="2">
-        <v>2717</v>
-      </c>
-      <c r="C113" s="2">
-        <v>17005301</v>
-      </c>
-      <c r="D113" s="3">
-        <v>45882</v>
+      <c r="B113" s="3">
+        <v>10638</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D113" s="4">
+        <v>45881</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
-      <c r="B114" s="2">
-        <v>3566</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D114" s="3">
-        <v>45882</v>
+      <c r="B114" s="3">
+        <v>10481</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D114" s="4">
+        <v>45873</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
-      <c r="B115" s="2">
-        <v>4277</v>
-      </c>
-      <c r="C115" s="2">
-        <v>2215046262</v>
-      </c>
-      <c r="D115" s="3">
-        <v>45882</v>
-      </c>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
-      <c r="B116" s="2">
-        <v>10985</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D116" s="3">
-        <v>45882</v>
+      <c r="B116" s="3">
+        <v>120337</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D116" s="4">
+        <v>45885</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
-      <c r="B117" s="2">
-        <v>30063</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D117" s="3">
-        <v>45882</v>
+      <c r="B117" s="3">
+        <v>10335</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D117" s="4">
+        <v>45875</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
-      <c r="B118" s="2">
-        <v>30248</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D118" s="3">
-        <v>45882</v>
+      <c r="B118" s="3">
+        <v>10640</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D118" s="4">
+        <v>45876</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
-      <c r="B119" s="2">
-        <v>40354</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D119" s="3">
-        <v>45882</v>
-      </c>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
-      <c r="B120" s="2">
-        <v>40368</v>
-      </c>
-      <c r="C120" s="2">
-        <v>2215004349</v>
-      </c>
-      <c r="D120" s="3">
-        <v>45882</v>
-      </c>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
-      <c r="B121" s="2">
-        <v>40416</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D121" s="3">
-        <v>45882</v>
+      <c r="B121" s="3">
+        <v>4142</v>
+      </c>
+      <c r="C121" s="3">
+        <v>2215004209</v>
+      </c>
+      <c r="D121" s="4">
+        <v>45895</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
-      <c r="B122" s="2">
-        <v>40422</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D122" s="3">
-        <v>45882</v>
+      <c r="B122" s="3">
+        <v>50254</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D122" s="4">
+        <v>45874</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
-      <c r="B123" s="2">
-        <v>110004</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D123" s="3">
+      <c r="B123" s="3">
+        <v>50161</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D123" s="4">
         <v>45882</v>
       </c>
       <c r="E123" s="1"/>
@@ -2676,811 +2824,727 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
-      <c r="B124" s="2">
-        <v>110014</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D124" s="3">
-        <v>45882</v>
+      <c r="B124" s="3">
+        <v>50101</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D124" s="4">
+        <v>45875</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
-      <c r="B125" s="2">
-        <v>120062</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D125" s="3">
-        <v>45882</v>
+      <c r="B125" s="3">
+        <v>50170</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D125" s="4">
+        <v>45874</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
-      <c r="B126" s="2">
-        <v>1745</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D126" s="3">
-        <v>45883</v>
-      </c>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
-      <c r="B127" s="2">
-        <v>30272</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D127" s="3">
-        <v>45883</v>
+      <c r="B127" s="3">
+        <v>50152</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D127" s="4">
+        <v>45876</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
-      <c r="B128" s="2">
-        <v>30358</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D128" s="3">
-        <v>45883</v>
-      </c>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="2"/>
-      <c r="B129" s="2">
-        <v>40044</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D129" s="3">
-        <v>45883</v>
+      <c r="B129" s="3">
+        <v>10512</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D129" s="4">
+        <v>45875</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="2"/>
-      <c r="B130" s="2">
-        <v>40212</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D130" s="3">
-        <v>45883</v>
+      <c r="B130" s="3">
+        <v>50243</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" s="4">
+        <v>45874</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="2"/>
-      <c r="B131" s="2">
-        <v>10052</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D131" s="3">
-        <v>45884</v>
+      <c r="B131" s="3">
+        <v>50210</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="2"/>
-      <c r="B132" s="1">
-        <v>40024</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D132" s="3">
-        <v>45884</v>
-      </c>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="2"/>
-      <c r="B133" s="6">
-        <v>880</v>
-      </c>
-      <c r="C133" s="2">
-        <v>2215003956</v>
-      </c>
-      <c r="D133" s="3">
-        <v>45885</v>
+      <c r="B133" s="3">
+        <v>50022</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D133" s="4">
+        <v>45877</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="2"/>
-      <c r="B134" s="2">
-        <v>1029</v>
-      </c>
-      <c r="C134" s="2">
-        <v>17005867</v>
-      </c>
-      <c r="D134" s="3">
-        <v>45885</v>
-      </c>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="2"/>
-      <c r="B135" s="2">
-        <v>1212</v>
-      </c>
-      <c r="C135" s="2">
-        <v>17008091</v>
-      </c>
-      <c r="D135" s="3">
-        <v>45885</v>
+      <c r="B135" s="3">
+        <v>120384</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D135" s="4">
+        <v>45890</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="2"/>
-      <c r="B136" s="2">
-        <v>1243</v>
-      </c>
-      <c r="C136" s="2">
-        <v>17005273</v>
-      </c>
-      <c r="D136" s="3">
-        <v>45885</v>
+      <c r="B136" s="3">
+        <v>4743</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D136" s="4">
+        <v>45874</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="2"/>
-      <c r="B137" s="2">
-        <v>1259</v>
-      </c>
-      <c r="C137" s="2">
-        <v>17005583</v>
-      </c>
-      <c r="D137" s="3">
-        <v>45885</v>
+      <c r="B137" s="3">
+        <v>1558</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D137" s="4">
+        <v>45881</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="2"/>
-      <c r="B138" s="2">
-        <v>2436</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D138" s="3">
-        <v>45885</v>
-      </c>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="2"/>
-      <c r="B139" s="2">
-        <v>3237</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D139" s="3">
-        <v>45885</v>
+      <c r="B139" s="3">
+        <v>50322</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D139" s="4">
+        <v>45874</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="2"/>
-      <c r="B140" s="2">
-        <v>3482</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D140" s="3">
-        <v>45885</v>
+      <c r="B140" s="3">
+        <v>50025</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" s="4">
+        <v>45876</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="2"/>
-      <c r="B141" s="2">
-        <v>3900</v>
-      </c>
-      <c r="C141" s="2">
-        <v>2215004304</v>
-      </c>
-      <c r="D141" s="3">
-        <v>45885</v>
+      <c r="B141" s="3">
+        <v>3037</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D141" s="4">
+        <v>45876</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="2"/>
-      <c r="B142" s="2">
-        <v>19695</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D142" s="3">
-        <v>45885</v>
-      </c>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="2"/>
-      <c r="B143" s="2">
-        <v>20586</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D143" s="3">
-        <v>45885</v>
-      </c>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="2"/>
-      <c r="B144" s="2">
-        <v>30300</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D144" s="3">
-        <v>45885</v>
+      <c r="B144" s="3">
+        <v>50229</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D144" s="4">
+        <v>45895</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="2"/>
-      <c r="B145" s="2">
-        <v>40020</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D145" s="3">
-        <v>45885</v>
+      <c r="B145" s="3">
+        <v>50239</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D145" s="4">
+        <v>45876</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="2"/>
-      <c r="B146" s="1">
-        <v>40041</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D146" s="3">
-        <v>45885</v>
+      <c r="B146" s="3">
+        <v>50174</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D146" s="4">
+        <v>45875</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="2"/>
-      <c r="B147" s="1">
-        <v>40110</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D147" s="3">
-        <v>45885</v>
+      <c r="B147" s="3">
+        <v>120598</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D147" s="4">
+        <v>45875</v>
       </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="2"/>
-      <c r="B148" s="1">
-        <v>40120</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D148" s="3">
-        <v>45885</v>
+      <c r="B148" s="3">
+        <v>1917</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D148" s="4">
+        <v>45887</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="2"/>
-      <c r="B149" s="2">
-        <v>40248</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D149" s="3">
-        <v>45885</v>
+      <c r="B149" s="5">
+        <v>20130</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D149" s="4">
+        <v>45875</v>
       </c>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="2"/>
-      <c r="B150" s="2">
-        <v>40383</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D150" s="3">
-        <v>45885</v>
+      <c r="B150" s="3">
+        <v>20394</v>
+      </c>
+      <c r="C150" s="3">
+        <v>2215004766</v>
+      </c>
+      <c r="D150" s="4">
+        <v>45881</v>
       </c>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="2"/>
-      <c r="B151" s="2">
-        <v>1610</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D151" s="3">
-        <v>45887</v>
+      <c r="B151" s="3">
+        <v>20094</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D151" s="4">
+        <v>45877</v>
       </c>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="2"/>
-      <c r="B152" s="2">
-        <v>1817</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D152" s="3">
-        <v>45887</v>
+      <c r="B152" s="3">
+        <v>20708</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D152" s="4">
+        <v>45875</v>
       </c>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="2"/>
-      <c r="B153" s="2">
-        <v>1917</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D153" s="3">
-        <v>45887</v>
+      <c r="B153" s="3">
+        <v>20045</v>
+      </c>
+      <c r="C153" s="3">
+        <v>2215003940</v>
+      </c>
+      <c r="D153" s="4">
+        <v>45877</v>
       </c>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="2"/>
-      <c r="B154" s="2">
-        <v>1980</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D154" s="3">
-        <v>45887</v>
+      <c r="B154" s="3">
+        <v>120155</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D154" s="4">
+        <v>45875</v>
       </c>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="2"/>
-      <c r="B155" s="2">
-        <v>2474</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D155" s="3">
-        <v>45887</v>
+      <c r="B155" s="3">
+        <v>20176</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D155" s="4">
+        <v>45875</v>
       </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="2"/>
-      <c r="B156" s="2">
-        <v>2542</v>
-      </c>
-      <c r="C156" s="2">
-        <v>2215046372</v>
-      </c>
-      <c r="D156" s="3">
-        <v>45887</v>
+      <c r="B156" s="3">
+        <v>120003</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D156" s="4">
+        <v>45897</v>
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="2"/>
-      <c r="B157" s="2">
-        <v>3277</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D157" s="3">
-        <v>45887</v>
+      <c r="B157" s="3">
+        <v>20198</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D157" s="4">
+        <v>45875</v>
       </c>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="2"/>
-      <c r="B158" s="2">
-        <v>3659</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D158" s="3">
-        <v>45887</v>
+      <c r="B158" s="3">
+        <v>3840</v>
+      </c>
+      <c r="C158" s="3">
+        <v>2215004676</v>
+      </c>
+      <c r="D158" s="4">
+        <v>45876</v>
       </c>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="2"/>
-      <c r="B159" s="2">
-        <v>20509</v>
-      </c>
-      <c r="C159" s="2">
-        <v>2381361930</v>
-      </c>
-      <c r="D159" s="3">
-        <v>45887</v>
+      <c r="B159" s="3">
+        <v>20184</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D159" s="4">
+        <v>45876</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="2"/>
-      <c r="B160" s="2">
-        <v>20640</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D160" s="3">
-        <v>45887</v>
+      <c r="B160" s="3">
+        <v>20510</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D160" s="4">
+        <v>45877</v>
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="2"/>
-      <c r="B161" s="2">
-        <v>30260</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D161" s="3">
-        <v>45887</v>
+      <c r="B161" s="3">
+        <v>20168</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D161" s="4">
+        <v>45875</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="2"/>
-      <c r="B162" s="2">
-        <v>40193</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D162" s="3">
-        <v>45887</v>
+      <c r="B162" s="3">
+        <v>20189</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D162" s="4">
+        <v>45875</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="2"/>
-      <c r="B163" s="2">
-        <v>63</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D163" s="3">
-        <v>45889</v>
+      <c r="B163" s="3">
+        <v>20262</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D163" s="4">
+        <v>45877</v>
       </c>
       <c r="F163" s="1"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="2"/>
-      <c r="B164" s="2">
-        <v>67</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D164" s="3">
-        <v>45889</v>
+      <c r="B164" s="3">
+        <v>20679</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D164" s="4">
+        <v>45875</v>
       </c>
       <c r="F164" s="1"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="2"/>
-      <c r="B165" s="2">
-        <v>297</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D165" s="3">
-        <v>45889</v>
-      </c>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
       <c r="F165" s="1"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="2"/>
-      <c r="B166" s="5">
-        <v>2062</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D166" s="3">
-        <v>45889</v>
-      </c>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
       <c r="F166" s="1"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="2"/>
-      <c r="B167" s="2">
-        <v>40151</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D167" s="3">
-        <v>45889</v>
+      <c r="B167" s="3">
+        <v>10282</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D167" s="4">
+        <v>45875</v>
       </c>
       <c r="F167" s="1"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="2"/>
-      <c r="B168" s="2">
-        <v>73</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D168" s="3">
-        <v>45890</v>
-      </c>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
       <c r="F168" s="1"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="2"/>
-      <c r="B169" s="2">
-        <v>78</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D169" s="3">
-        <v>45890</v>
-      </c>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
       <c r="F169" s="1"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="2"/>
-      <c r="B170" s="2">
-        <v>522</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D170" s="3">
-        <v>45890</v>
+      <c r="B170" s="3">
+        <v>120163</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D170" s="4">
+        <v>45876</v>
       </c>
       <c r="F170" s="1"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="2"/>
-      <c r="B171" s="2">
-        <v>875</v>
-      </c>
-      <c r="C171" s="2">
-        <v>17005470</v>
-      </c>
-      <c r="D171" s="3">
-        <v>45890</v>
-      </c>
+      <c r="B171" s="3">
+        <v>20552</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D171" s="3"/>
       <c r="F171" s="1"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="2"/>
-      <c r="B172" s="2">
-        <v>1547</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D172" s="3">
-        <v>45890</v>
-      </c>
+      <c r="B172" s="3">
+        <v>4769</v>
+      </c>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
       <c r="F172" s="1"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="2"/>
-      <c r="B173" s="2">
-        <v>2008</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D173" s="3">
-        <v>45890</v>
+      <c r="B173" s="3">
+        <v>20145</v>
+      </c>
+      <c r="C173" s="3">
+        <v>2115004610</v>
+      </c>
+      <c r="D173" s="4">
+        <v>45875</v>
       </c>
       <c r="F173" s="1"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="2"/>
-      <c r="B174" s="2">
-        <v>2521</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D174" s="3">
-        <v>45890</v>
-      </c>
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
       <c r="F174" s="1"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="2"/>
-      <c r="B175" s="2">
-        <v>20062</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D175" s="3">
+      <c r="B175" s="3">
+        <v>11171</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D175" s="4">
         <v>45890</v>
       </c>
       <c r="F175" s="1"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="2"/>
-      <c r="B176" s="1">
-        <v>30556</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D176" s="3">
-        <v>45890</v>
+      <c r="B176" s="5">
+        <v>30110</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D176" s="4">
+        <v>45877</v>
       </c>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="2"/>
-      <c r="B177" s="1">
-        <v>40434</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D177" s="3">
-        <v>45890</v>
+      <c r="B177" s="3">
+        <v>344</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D177" s="4">
+        <v>45895</v>
       </c>
       <c r="F177" s="1"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="2"/>
-      <c r="B178" s="2">
-        <v>120384</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D178" s="3">
-        <v>45890</v>
+      <c r="B178" s="3">
+        <v>30034</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D178" s="4">
+        <v>45881</v>
       </c>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="2"/>
-      <c r="B179" s="2">
-        <v>120470</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D179" s="3">
-        <v>45890</v>
-      </c>
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
       <c r="F179" s="1"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="2"/>
-      <c r="B180" s="2">
-        <v>120587</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D180" s="3">
-        <v>45890</v>
+      <c r="B180" s="3">
+        <v>372</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D180" s="4">
+        <v>45876</v>
       </c>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="2"/>
-      <c r="B181" s="2">
-        <v>120589</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D181" s="3">
-        <v>45890</v>
+      <c r="B181" s="3">
+        <v>30279</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D181" s="4">
+        <v>45877</v>
       </c>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="2"/>
-      <c r="B182" s="2">
-        <v>253</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D182" s="3">
-        <v>45891</v>
+      <c r="B182" s="3">
+        <v>30157</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D182" s="4">
+        <v>45877</v>
       </c>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
@@ -3488,14 +3552,14 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="2"/>
-      <c r="B183" s="2">
-        <v>671</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D183" s="3">
-        <v>45891</v>
+      <c r="B183" s="3">
+        <v>30008</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D183" s="4">
+        <v>45876</v>
       </c>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
@@ -3503,14 +3567,14 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="2"/>
-      <c r="B184" s="2">
-        <v>673</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D184" s="3">
-        <v>45891</v>
+      <c r="B184" s="3">
+        <v>30546</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D184" s="4">
+        <v>45877</v>
       </c>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
@@ -3518,14 +3582,14 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="2"/>
-      <c r="B185" s="2">
-        <v>1499</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D185" s="3">
-        <v>45891</v>
+      <c r="B185" s="3">
+        <v>30248</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D185" s="4">
+        <v>45882</v>
       </c>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
@@ -3533,29 +3597,23 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="2"/>
-      <c r="B186" s="2">
-        <v>1499</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D186" s="3">
-        <v>45891</v>
-      </c>
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="2"/>
-      <c r="B187" s="2">
-        <v>4029</v>
-      </c>
-      <c r="C187" s="2">
-        <v>2215003965</v>
-      </c>
-      <c r="D187" s="3">
-        <v>45891</v>
+      <c r="B187" s="3">
+        <v>159</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D187" s="4">
+        <v>45882</v>
       </c>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
@@ -3563,14 +3621,14 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="2"/>
-      <c r="B188" s="2">
-        <v>40240</v>
-      </c>
-      <c r="C188" s="2">
-        <v>2215003916</v>
-      </c>
-      <c r="D188" s="3">
-        <v>45891</v>
+      <c r="B188" s="3">
+        <v>162</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D188" s="4">
+        <v>45876</v>
       </c>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
@@ -3578,14 +3636,14 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="2"/>
-      <c r="B189" s="2">
-        <v>120370</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D189" s="3">
-        <v>45891</v>
+      <c r="B189" s="3">
+        <v>30272</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D189" s="4">
+        <v>45883</v>
       </c>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
@@ -3593,1450 +3651,3429 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" s="2"/>
-      <c r="B190" s="2">
-        <v>120495</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D190" s="3">
-        <v>45891</v>
-      </c>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="2"/>
-      <c r="B191" s="2">
-        <v>4076</v>
-      </c>
-      <c r="C191" s="2">
-        <v>2215004241</v>
-      </c>
-      <c r="D191" s="3">
-        <v>45900</v>
-      </c>
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="2"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="2"/>
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="2"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="2"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="2"/>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="2"/>
+      <c r="B194" s="3">
+        <v>30260</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D194" s="4">
+        <v>45887</v>
+      </c>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="2"/>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
-      <c r="D195" s="2"/>
+      <c r="B195" s="3">
+        <v>189</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D195" s="3"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="2"/>
-      <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
-      <c r="D196" s="2"/>
+      <c r="B196" s="3">
+        <v>30063</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D196" s="4">
+        <v>45885</v>
+      </c>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="2"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
-      <c r="D197" s="2"/>
+      <c r="B197" s="3">
+        <v>567</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D197" s="3"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="2"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
-      <c r="D198" s="2"/>
+      <c r="B198" s="3">
+        <v>20424</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D198" s="3"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="2"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="2"/>
+      <c r="B199" s="3">
+        <v>30329</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D199" s="4">
+        <v>45877</v>
+      </c>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="2"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
-      <c r="D200" s="2"/>
+      <c r="B200" s="3">
+        <v>639</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D200" s="3"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" s="2"/>
-      <c r="B201" s="1"/>
-      <c r="C201" s="1"/>
-      <c r="D201" s="2"/>
+      <c r="B201" s="3">
+        <v>570</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D201" s="3"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" s="2"/>
-      <c r="B202" s="1"/>
-      <c r="C202" s="1"/>
-      <c r="D202" s="2"/>
+      <c r="B202" s="3">
+        <v>30140</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D202" s="3"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="2"/>
-      <c r="B203" s="1"/>
-      <c r="C203" s="1"/>
-      <c r="D203" s="2"/>
+      <c r="B203" s="3">
+        <v>30345</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D203" s="4">
+        <v>45877</v>
+      </c>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="2"/>
-      <c r="B204" s="1"/>
-      <c r="C204" s="1"/>
-      <c r="D204" s="2"/>
+      <c r="B204" s="3">
+        <v>513</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D204" s="4">
+        <v>45884</v>
+      </c>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="2"/>
-      <c r="B205" s="1"/>
-      <c r="C205" s="1"/>
-      <c r="D205" s="2"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" s="2"/>
-      <c r="B206" s="1"/>
-      <c r="C206" s="1"/>
-      <c r="D206" s="2"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" s="2"/>
-      <c r="B207" s="1"/>
-      <c r="C207" s="1"/>
-      <c r="D207" s="2"/>
+      <c r="B207" s="3">
+        <v>3566</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D207" s="4">
+        <v>45882</v>
+      </c>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" s="2"/>
-      <c r="B208" s="1"/>
-      <c r="C208" s="1"/>
-      <c r="D208" s="2"/>
+      <c r="B208" s="3">
+        <v>521</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D208" s="4">
+        <v>45885</v>
+      </c>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" s="2"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
-      <c r="D209" s="2"/>
+      <c r="B209" s="3">
+        <v>676</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D209" s="4">
+        <v>45877</v>
+      </c>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" s="2"/>
-      <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
-      <c r="D210" s="2"/>
+      <c r="B210" s="3"/>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" s="2"/>
-      <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
-      <c r="D211" s="2"/>
+      <c r="B211" s="3">
+        <v>673</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D211" s="4">
+        <v>45877</v>
+      </c>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" s="2"/>
-      <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
-      <c r="D212" s="2"/>
+      <c r="B212" s="3"/>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
-      <c r="D213" s="2"/>
+      <c r="B213" s="3">
+        <v>671</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D213" s="4">
+        <v>45891</v>
+      </c>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
-      <c r="D214" s="2"/>
+      <c r="B214" s="3">
+        <v>522</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D214" s="4">
+        <v>45890</v>
+      </c>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B215" s="1"/>
-      <c r="C215" s="1"/>
-      <c r="D215" s="2"/>
+      <c r="B215" s="3"/>
+      <c r="C215" s="3"/>
+      <c r="D215" s="3"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
-      <c r="D216" s="1"/>
+      <c r="B216" s="3"/>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
-      <c r="D217" s="2"/>
+      <c r="B217" s="3">
+        <v>591</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D217" s="4">
+        <v>45877</v>
+      </c>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
-      <c r="D218" s="1"/>
+      <c r="B218" s="3"/>
+      <c r="C218" s="3"/>
+      <c r="D218" s="3"/>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
-      <c r="D219" s="2"/>
+      <c r="B219" s="3">
+        <v>30112</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D219" s="4">
+        <v>45877</v>
+      </c>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B220" s="1"/>
-      <c r="C220" s="1"/>
-      <c r="D220" s="2"/>
+      <c r="B220" s="3"/>
+      <c r="C220" s="3"/>
+      <c r="D220" s="3"/>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
-      <c r="D221" s="2"/>
+      <c r="B221" s="3">
+        <v>661</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D221" s="4">
+        <v>45877</v>
+      </c>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B222" s="1"/>
-      <c r="C222" s="1"/>
-      <c r="D222" s="2"/>
+      <c r="B222" s="3"/>
+      <c r="C222" s="3"/>
+      <c r="D222" s="3"/>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B223" s="1"/>
-      <c r="C223" s="1"/>
-      <c r="D223" s="2"/>
+      <c r="B223" s="3"/>
+      <c r="C223" s="3"/>
+      <c r="D223" s="3"/>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B224" s="1"/>
-      <c r="C224" s="1"/>
-      <c r="D224" s="2"/>
+      <c r="B224" s="3"/>
+      <c r="C224" s="3"/>
+      <c r="D224" s="3"/>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B225" s="1"/>
-      <c r="C225" s="1"/>
-      <c r="D225" s="2"/>
+      <c r="B225" s="3"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3"/>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
-      <c r="D226" s="2"/>
+      <c r="B226" s="3"/>
+      <c r="C226" s="3"/>
+      <c r="D226" s="3"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
-      <c r="D227" s="2"/>
+      <c r="B227" s="3"/>
+      <c r="C227" s="3"/>
+      <c r="D227" s="3"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B228" s="1"/>
-      <c r="C228" s="1"/>
-      <c r="D228" s="2"/>
+      <c r="B228" s="3"/>
+      <c r="C228" s="3"/>
+      <c r="D228" s="3"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B229" s="1"/>
-      <c r="C229" s="1"/>
-      <c r="D229" s="2"/>
+      <c r="B229" s="3"/>
+      <c r="C229" s="3"/>
+      <c r="D229" s="3"/>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
     </row>
     <row r="230" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B230" s="1"/>
-      <c r="C230" s="1"/>
-      <c r="D230" s="1"/>
+      <c r="B230" s="3">
+        <v>30358</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D230" s="4">
+        <v>45883</v>
+      </c>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
     </row>
     <row r="231" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B231" s="1"/>
-      <c r="C231" s="1"/>
-      <c r="D231" s="2"/>
+      <c r="B231" s="3">
+        <v>30532</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D231" s="4">
+        <v>45877</v>
+      </c>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
     </row>
     <row r="232" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B232" s="1"/>
-      <c r="C232" s="1"/>
-      <c r="D232" s="2"/>
+      <c r="B232" s="3">
+        <v>880</v>
+      </c>
+      <c r="C232" s="3">
+        <v>2215003956</v>
+      </c>
+      <c r="D232" s="4">
+        <v>45885</v>
+      </c>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
     </row>
     <row r="233" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B233" s="1"/>
-      <c r="C233" s="1"/>
-      <c r="D233" s="2"/>
+      <c r="B233" s="3">
+        <v>875</v>
+      </c>
+      <c r="C233" s="3">
+        <v>17005470</v>
+      </c>
+      <c r="D233" s="4">
+        <v>45890</v>
+      </c>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
     </row>
     <row r="234" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B234" s="1"/>
-      <c r="C234" s="1"/>
-      <c r="D234" s="2"/>
+      <c r="B234" s="3">
+        <v>2244</v>
+      </c>
+      <c r="C234" s="3">
+        <v>17006245</v>
+      </c>
+      <c r="D234" s="4">
+        <v>45889</v>
+      </c>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B235" s="1"/>
-      <c r="C235" s="1"/>
-      <c r="D235" s="2"/>
+      <c r="B235" s="3">
+        <v>926</v>
+      </c>
+      <c r="C235" s="3">
+        <v>17005734</v>
+      </c>
+      <c r="D235" s="4">
+        <v>45889</v>
+      </c>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
     </row>
     <row r="236" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B236" s="1"/>
-      <c r="C236" s="1"/>
-      <c r="D236" s="2"/>
+      <c r="B236" s="3">
+        <v>2717</v>
+      </c>
+      <c r="C236" s="3">
+        <v>17005301</v>
+      </c>
+      <c r="D236" s="4">
+        <v>45882</v>
+      </c>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
     </row>
     <row r="237" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B237" s="1"/>
-      <c r="C237" s="1"/>
-      <c r="D237" s="2"/>
+      <c r="B237" s="3"/>
+      <c r="C237" s="3"/>
+      <c r="D237" s="3"/>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
     </row>
     <row r="238" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B238" s="1"/>
-      <c r="C238" s="1"/>
+      <c r="B238" s="3">
+        <v>2356</v>
+      </c>
+      <c r="C238" s="3">
+        <v>17005289</v>
+      </c>
+      <c r="D238" s="4">
+        <v>45882</v>
+      </c>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
     </row>
     <row r="239" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B239" s="1"/>
-      <c r="C239" s="1"/>
+      <c r="B239" s="3">
+        <v>1289</v>
+      </c>
+      <c r="C239" s="3">
+        <v>17005935</v>
+      </c>
+      <c r="D239" s="4">
+        <v>45882</v>
+      </c>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
     </row>
     <row r="240" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B240" s="3">
+        <v>2622</v>
+      </c>
+      <c r="C240" s="3">
+        <v>17005603</v>
+      </c>
+      <c r="D240" s="4">
+        <v>45881</v>
+      </c>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
     </row>
-    <row r="241" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B241" s="3">
+        <v>1015</v>
+      </c>
+      <c r="C241" s="3">
+        <v>17006392</v>
+      </c>
+      <c r="D241" s="4">
+        <v>45882</v>
+      </c>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
     </row>
-    <row r="242" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B242" s="3"/>
+      <c r="C242" s="3"/>
+      <c r="D242" s="3"/>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
     </row>
-    <row r="243" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B243" s="3"/>
+      <c r="C243" s="3"/>
+      <c r="D243" s="3"/>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
     </row>
-    <row r="244" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B244" s="3"/>
+      <c r="C244" s="3"/>
+      <c r="D244" s="3"/>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
     </row>
-    <row r="245" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B245" s="3"/>
+      <c r="C245" s="3"/>
+      <c r="D245" s="3"/>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
     </row>
-    <row r="246" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B246" s="3"/>
+      <c r="C246" s="3"/>
+      <c r="D246" s="3"/>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
     </row>
-    <row r="247" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B247" s="3">
+        <v>1246</v>
+      </c>
+      <c r="C247" s="3">
+        <v>17006250</v>
+      </c>
+      <c r="D247" s="4">
+        <v>45881</v>
+      </c>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
     </row>
-    <row r="248" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B248" s="3"/>
+      <c r="C248" s="3"/>
+      <c r="D248" s="3"/>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
     </row>
-    <row r="249" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B249" s="3"/>
+      <c r="C249" s="3"/>
+      <c r="D249" s="3"/>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
     </row>
-    <row r="250" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B250" s="3"/>
+      <c r="C250" s="3"/>
+      <c r="D250" s="3"/>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
     </row>
-    <row r="251" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B251" s="3"/>
+      <c r="C251" s="3"/>
+      <c r="D251" s="3"/>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
     </row>
-    <row r="252" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B252" s="3">
+        <v>1212</v>
+      </c>
+      <c r="C252" s="3">
+        <v>17008091</v>
+      </c>
+      <c r="D252" s="4">
+        <v>45885</v>
+      </c>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
     </row>
-    <row r="253" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B253" s="3"/>
+      <c r="C253" s="3"/>
+      <c r="D253" s="3"/>
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
     </row>
-    <row r="254" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B254" s="3"/>
+      <c r="C254" s="3"/>
+      <c r="D254" s="3"/>
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
     </row>
-    <row r="255" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B255" s="5">
+        <v>110047</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D255" s="4">
+        <v>45884</v>
+      </c>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
     </row>
-    <row r="256" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B256" s="3">
+        <v>110014</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D256" s="4">
+        <v>45882</v>
+      </c>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
     </row>
-    <row r="257" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B257" s="3"/>
+      <c r="C257" s="3"/>
+      <c r="D257" s="3"/>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
     </row>
-    <row r="258" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B258" s="3">
+        <v>10755</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D258" s="4">
+        <v>45884</v>
+      </c>
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
     </row>
-    <row r="259" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B259" s="3">
+        <v>40368</v>
+      </c>
+      <c r="C259" s="3">
+        <v>2215004349</v>
+      </c>
+      <c r="D259" s="4">
+        <v>45882</v>
+      </c>
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
     </row>
-    <row r="260" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B260" s="3">
+        <v>40044</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D260" s="4">
+        <v>45883</v>
+      </c>
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
     </row>
-    <row r="261" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B261" s="3">
+        <v>40080</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D261" s="4">
+        <v>45889</v>
+      </c>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
     </row>
-    <row r="262" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B262" s="3">
+        <v>40144</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D262" s="4">
+        <v>45890</v>
+      </c>
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
     </row>
-    <row r="263" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B263" s="3">
+        <v>30300</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D263" s="4">
+        <v>45885</v>
+      </c>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
     </row>
-    <row r="264" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B264" s="3">
+        <v>110004</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D264" s="4">
+        <v>45890</v>
+      </c>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
     </row>
-    <row r="265" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B265" s="3"/>
+      <c r="C265" s="3"/>
+      <c r="D265" s="3"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
     </row>
-    <row r="266" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B266" s="3">
+        <v>3136</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D266" s="4">
+        <v>45891</v>
+      </c>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
     </row>
-    <row r="267" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B267" s="3">
+        <v>110061</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D267" s="4">
+        <v>45890</v>
+      </c>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
     </row>
-    <row r="268" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B268" s="3"/>
+      <c r="C268" s="3"/>
+      <c r="D268" s="3"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
     </row>
-    <row r="269" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B269" s="3">
+        <v>2564</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D269" s="4">
+        <v>45889</v>
+      </c>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
     </row>
-    <row r="270" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B270" s="3">
+        <v>40074</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D270" s="4">
+        <v>45896</v>
+      </c>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
     </row>
-    <row r="271" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B271" s="3"/>
+      <c r="C271" s="3"/>
+      <c r="D271" s="3"/>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
     </row>
-    <row r="272" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B272" s="3"/>
+      <c r="C272" s="3"/>
+      <c r="D272" s="3"/>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
     </row>
     <row r="273" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B273" s="3"/>
+      <c r="C273" s="3"/>
+      <c r="D273" s="3"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
     </row>
     <row r="274" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B274" s="1"/>
-      <c r="C274" s="1"/>
+      <c r="B274" s="3">
+        <v>40246</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D274" s="4">
+        <v>45895</v>
+      </c>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
     </row>
     <row r="275" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B275" s="1"/>
-      <c r="C275" s="1"/>
+      <c r="B275" s="3">
+        <v>4277</v>
+      </c>
+      <c r="C275" s="3">
+        <v>2215046262</v>
+      </c>
+      <c r="D275" s="4">
+        <v>45882</v>
+      </c>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
     </row>
     <row r="276" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B276" s="1"/>
-      <c r="C276" s="1"/>
+      <c r="B276" s="3">
+        <v>40020</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D276" s="4">
+        <v>45885</v>
+      </c>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
     </row>
     <row r="277" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B277" s="3">
+        <v>40416</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D277" s="4">
+        <v>45882</v>
+      </c>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
     </row>
     <row r="278" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B278" s="3">
+        <v>606</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D278" s="4">
+        <v>45890</v>
+      </c>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
     </row>
     <row r="279" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B279" s="3"/>
+      <c r="C279" s="3"/>
+      <c r="D279" s="3"/>
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
     </row>
     <row r="280" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B280" s="3"/>
+      <c r="C280" s="3"/>
+      <c r="D280" s="3"/>
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
     </row>
     <row r="281" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B281" s="3">
+        <v>40248</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D281" s="4">
+        <v>45885</v>
+      </c>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
     </row>
     <row r="282" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B282" s="3">
+        <v>40354</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D282" s="4">
+        <v>45882</v>
+      </c>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
     </row>
     <row r="283" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B283" s="3"/>
+      <c r="C283" s="3"/>
+      <c r="D283" s="3"/>
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
     </row>
     <row r="284" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B284" s="3">
+        <v>40212</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D284" s="4">
+        <v>45883</v>
+      </c>
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
     </row>
     <row r="285" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B285" s="3"/>
+      <c r="C285" s="3"/>
+      <c r="D285" s="3"/>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
     </row>
     <row r="286" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B286" s="3"/>
+      <c r="C286" s="3"/>
+      <c r="D286" s="3"/>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
     </row>
     <row r="287" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B287" s="3">
+        <v>40079</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D287" s="4">
+        <v>45895</v>
+      </c>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B288" s="3">
+        <v>1930</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D288" s="4">
+        <v>45883</v>
+      </c>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
     </row>
     <row r="289" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B289" s="3">
+        <v>40422</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D289" s="4">
+        <v>45882</v>
+      </c>
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
     </row>
     <row r="290" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B290" s="5">
+        <v>40474</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D290" s="4">
+        <v>45887</v>
+      </c>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
     </row>
     <row r="291" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B291" s="3">
+        <v>40382</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D291" s="4">
+        <v>45894</v>
+      </c>
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
     </row>
     <row r="292" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B292" s="1"/>
-      <c r="C292" s="1"/>
+      <c r="B292" s="3">
+        <v>1610</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D292" s="4">
+        <v>45887</v>
+      </c>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
     </row>
     <row r="293" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B293" s="1"/>
-      <c r="C293" s="1"/>
+      <c r="B293" s="3">
+        <v>1745</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D293" s="4">
+        <v>45883</v>
+      </c>
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
     </row>
     <row r="294" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B294" s="1"/>
-      <c r="C294" s="1"/>
+      <c r="B294" s="3"/>
+      <c r="C294" s="3"/>
+      <c r="D294" s="3"/>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
     </row>
     <row r="295" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B295" s="1"/>
-      <c r="C295" s="1"/>
+      <c r="B295" s="3">
+        <v>40437</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D295" s="4">
+        <v>45889</v>
+      </c>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
     </row>
     <row r="296" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B296" s="3"/>
+      <c r="C296" s="3"/>
+      <c r="D296" s="3"/>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
     </row>
     <row r="297" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B297" s="1"/>
-      <c r="C297" s="1"/>
+      <c r="B297" s="3">
+        <v>40434</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D297" s="4">
+        <v>45890</v>
+      </c>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
     </row>
     <row r="298" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B298" s="3">
+        <v>40307</v>
+      </c>
+      <c r="C298" s="3">
+        <v>1408014410</v>
+      </c>
+      <c r="D298" s="4">
+        <v>45889</v>
+      </c>
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B299" s="1"/>
-      <c r="C299" s="1"/>
+      <c r="B299" s="3">
+        <v>40148</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D299" s="4">
+        <v>45897</v>
+      </c>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
     </row>
     <row r="300" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B300" s="3">
+        <v>2152</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D300" s="4">
+        <v>45890</v>
+      </c>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
     </row>
     <row r="301" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B301" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D301" s="4">
+        <v>45887</v>
+      </c>
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
     </row>
     <row r="302" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B302" s="3">
+        <v>40240</v>
+      </c>
+      <c r="C302" s="3">
+        <v>2215003916</v>
+      </c>
+      <c r="D302" s="4">
+        <v>45891</v>
+      </c>
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
     </row>
     <row r="303" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B303" s="3">
+        <v>10316</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D303" s="4">
+        <v>45884</v>
+      </c>
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
     </row>
     <row r="304" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B304" s="3"/>
+      <c r="C304" s="3"/>
+      <c r="D304" s="3"/>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
     </row>
-    <row r="305" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B305" s="3"/>
+      <c r="C305" s="3"/>
+      <c r="D305" s="3"/>
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
     </row>
-    <row r="306" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B306" s="3"/>
+      <c r="C306" s="3"/>
+      <c r="D306" s="3"/>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
     </row>
-    <row r="307" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B307" s="3">
+        <v>2436</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D307" s="4">
+        <v>45885</v>
+      </c>
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
     </row>
-    <row r="308" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B308" s="3"/>
+      <c r="C308" s="3"/>
+      <c r="D308" s="3"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
     </row>
-    <row r="309" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B309" s="3">
+        <v>1817</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D309" s="4">
+        <v>45887</v>
+      </c>
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
       <c r="G309" s="1"/>
     </row>
-    <row r="310" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B310" s="3"/>
+      <c r="C310" s="3"/>
+      <c r="D310" s="3"/>
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
     </row>
-    <row r="311" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B311" s="3">
+        <v>2542</v>
+      </c>
+      <c r="C311" s="3">
+        <v>2215046372</v>
+      </c>
+      <c r="D311" s="4">
+        <v>45887</v>
+      </c>
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
     </row>
-    <row r="312" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B312" s="3">
+        <v>40310</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D312" s="4">
+        <v>45884</v>
+      </c>
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
     </row>
-    <row r="313" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B313" s="3"/>
+      <c r="C313" s="3"/>
+      <c r="D313" s="3"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
     </row>
-    <row r="314" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B314" s="3">
+        <v>40151</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D314" s="4">
+        <v>45889</v>
+      </c>
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
     </row>
-    <row r="315" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B315" s="3"/>
+      <c r="C315" s="3"/>
+      <c r="D315" s="3"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
       <c r="G315" s="1"/>
     </row>
-    <row r="316" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B316" s="3"/>
+      <c r="C316" s="3"/>
+      <c r="D316" s="3"/>
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
     </row>
-    <row r="317" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B317" s="3"/>
+      <c r="C317" s="3"/>
+      <c r="D317" s="3"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
       <c r="G317" s="1"/>
     </row>
-    <row r="318" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B318" s="3">
+        <v>641</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D318" s="4">
+        <v>45884</v>
+      </c>
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
     </row>
-    <row r="319" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B319" s="3">
+        <v>2474</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D319" s="4">
+        <v>45887</v>
+      </c>
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
     </row>
-    <row r="320" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B320" s="3">
+        <v>3277</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D320" s="4">
+        <v>45887</v>
+      </c>
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
     </row>
     <row r="321" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B321" s="3"/>
+      <c r="C321" s="3"/>
+      <c r="D321" s="3"/>
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
     </row>
     <row r="322" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B322" s="3">
+        <v>4029</v>
+      </c>
+      <c r="C322" s="3">
+        <v>2215003965</v>
+      </c>
+      <c r="D322" s="4">
+        <v>45891</v>
+      </c>
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
     </row>
     <row r="323" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B323" s="3">
+        <v>40024</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D323" s="4">
+        <v>45884</v>
+      </c>
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
     </row>
     <row r="324" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B324" s="3"/>
+      <c r="C324" s="3"/>
+      <c r="D324" s="3"/>
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
     </row>
     <row r="325" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B325" s="3">
+        <v>2579</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D325" s="4">
+        <v>45896</v>
+      </c>
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
     </row>
     <row r="326" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B326" s="3"/>
+      <c r="C326" s="3"/>
+      <c r="D326" s="3"/>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
     </row>
     <row r="327" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B327" s="1"/>
-      <c r="C327" s="1"/>
+      <c r="B327" s="3"/>
+      <c r="C327" s="3"/>
+      <c r="D327" s="3"/>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
     </row>
     <row r="328" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B328" s="1"/>
-      <c r="C328" s="1"/>
+      <c r="B328" s="3">
+        <v>2147</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D328" s="4">
+        <v>45884</v>
+      </c>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
     </row>
     <row r="329" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B329" s="1"/>
-      <c r="C329" s="1"/>
+      <c r="B329" s="3">
+        <v>40427</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D329" s="4">
+        <v>45889</v>
+      </c>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
     </row>
     <row r="330" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B330" s="3">
+        <v>10052</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D330" s="4">
+        <v>45885</v>
+      </c>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
     </row>
     <row r="331" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B331" s="1"/>
-      <c r="C331" s="1"/>
+      <c r="B331" s="3">
+        <v>20581</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D331" s="4">
+        <v>45884</v>
+      </c>
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
     </row>
     <row r="332" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B332" s="1"/>
-      <c r="C332" s="1"/>
+      <c r="B332" s="3">
+        <v>40348</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D332" s="4">
+        <v>45889</v>
+      </c>
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
     </row>
     <row r="333" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B333" s="1"/>
-      <c r="C333" s="1"/>
+      <c r="B333" s="3">
+        <v>20586</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D333" s="4">
+        <v>45885</v>
+      </c>
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
     </row>
     <row r="334" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B334" s="1"/>
-      <c r="C334" s="1"/>
+      <c r="B334" s="3"/>
+      <c r="C334" s="3"/>
+      <c r="D334" s="3"/>
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
       <c r="G334" s="1"/>
     </row>
     <row r="335" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B335" s="1"/>
-      <c r="C335" s="1"/>
+      <c r="B335" s="3"/>
+      <c r="C335" s="3"/>
+      <c r="D335" s="3"/>
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
       <c r="G335" s="1"/>
     </row>
     <row r="336" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B336" s="1"/>
-      <c r="C336" s="1"/>
+      <c r="B336" s="3"/>
+      <c r="C336" s="3"/>
+      <c r="D336" s="3"/>
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
     </row>
     <row r="337" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B337" s="1"/>
-      <c r="C337" s="1"/>
+      <c r="B337" s="3"/>
+      <c r="C337" s="3"/>
+      <c r="D337" s="3"/>
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
       <c r="G337" s="1"/>
     </row>
     <row r="338" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B338" s="1"/>
-      <c r="C338" s="1"/>
+      <c r="B338" s="3"/>
+      <c r="C338" s="3"/>
+      <c r="D338" s="3"/>
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
       <c r="G338" s="1"/>
     </row>
     <row r="339" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B339" s="1"/>
-      <c r="C339" s="1"/>
+      <c r="B339" s="3"/>
+      <c r="C339" s="3"/>
+      <c r="D339" s="3"/>
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
       <c r="G339" s="1"/>
     </row>
     <row r="340" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B340" s="1"/>
-      <c r="C340" s="1"/>
+      <c r="B340" s="3"/>
+      <c r="C340" s="3"/>
+      <c r="D340" s="3"/>
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
     </row>
     <row r="341" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B341" s="1"/>
-      <c r="C341" s="1"/>
+      <c r="B341" s="3"/>
+      <c r="C341" s="3"/>
+      <c r="D341" s="3"/>
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
     </row>
     <row r="342" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B342" s="3"/>
+      <c r="C342" s="3"/>
+      <c r="D342" s="3"/>
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
     </row>
     <row r="343" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B343" s="3"/>
+      <c r="C343" s="3"/>
+      <c r="D343" s="3"/>
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
     </row>
     <row r="344" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B344" s="3"/>
+      <c r="C344" s="3"/>
+      <c r="D344" s="3"/>
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
     </row>
     <row r="345" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B345" s="1"/>
-      <c r="C345" s="1"/>
+      <c r="B345" s="3"/>
+      <c r="C345" s="3"/>
+      <c r="D345" s="3"/>
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
     </row>
     <row r="346" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B346" s="1"/>
-      <c r="C346" s="1"/>
+      <c r="B346" s="3"/>
+      <c r="C346" s="3"/>
+      <c r="D346" s="3"/>
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
     </row>
     <row r="347" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B347" s="1"/>
-      <c r="C347" s="1"/>
+      <c r="B347" s="3"/>
+      <c r="C347" s="3"/>
+      <c r="D347" s="3"/>
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
     </row>
     <row r="348" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B348" s="1"/>
-      <c r="C348" s="1"/>
+      <c r="B348" s="3"/>
+      <c r="C348" s="3"/>
+      <c r="D348" s="3"/>
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
     </row>
     <row r="349" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B349" s="3"/>
+      <c r="C349" s="3"/>
+      <c r="D349" s="3"/>
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
       <c r="G349" s="1"/>
     </row>
     <row r="350" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B350" s="3"/>
+      <c r="C350" s="3"/>
+      <c r="D350" s="3"/>
       <c r="E350" s="1"/>
       <c r="F350" s="1"/>
       <c r="G350" s="1"/>
     </row>
     <row r="351" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B351" s="3"/>
+      <c r="C351" s="3"/>
+      <c r="D351" s="3"/>
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
       <c r="G351" s="1"/>
     </row>
     <row r="352" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B352" s="3"/>
+      <c r="C352" s="3"/>
+      <c r="D352" s="3"/>
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
     </row>
     <row r="353" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B353" s="3"/>
+      <c r="C353" s="3"/>
+      <c r="D353" s="3"/>
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
       <c r="G353" s="1"/>
     </row>
     <row r="354" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B354" s="3"/>
+      <c r="C354" s="3"/>
+      <c r="D354" s="3"/>
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
     </row>
     <row r="355" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B355" s="3"/>
+      <c r="C355" s="3"/>
+      <c r="D355" s="3"/>
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
       <c r="G355" s="1"/>
     </row>
     <row r="356" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B356" s="3"/>
+      <c r="C356" s="3"/>
+      <c r="D356" s="3"/>
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
       <c r="G356" s="1"/>
     </row>
     <row r="357" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B357" s="3"/>
+      <c r="C357" s="3"/>
+      <c r="D357" s="3"/>
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
       <c r="G357" s="1"/>
     </row>
     <row r="358" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B358" s="3"/>
+      <c r="C358" s="3"/>
+      <c r="D358" s="3"/>
       <c r="E358" s="1"/>
       <c r="F358" s="1"/>
       <c r="G358" s="1"/>
     </row>
     <row r="359" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B359" s="3"/>
+      <c r="C359" s="3"/>
+      <c r="D359" s="3"/>
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
       <c r="G359" s="1"/>
     </row>
     <row r="360" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B360" s="3"/>
+      <c r="C360" s="3"/>
+      <c r="D360" s="3"/>
       <c r="E360" s="1"/>
       <c r="F360" s="1"/>
       <c r="G360" s="1"/>
     </row>
     <row r="361" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B361" s="3"/>
+      <c r="C361" s="3"/>
+      <c r="D361" s="3"/>
       <c r="E361" s="1"/>
       <c r="F361" s="1"/>
       <c r="G361" s="1"/>
     </row>
     <row r="362" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B362" s="3"/>
+      <c r="C362" s="3"/>
+      <c r="D362" s="3"/>
       <c r="E362" s="1"/>
       <c r="F362" s="1"/>
       <c r="G362" s="1"/>
     </row>
     <row r="363" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B363" s="3"/>
+      <c r="C363" s="3"/>
+      <c r="D363" s="3"/>
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
       <c r="G363" s="1"/>
     </row>
     <row r="364" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B364" s="3"/>
+      <c r="C364" s="3"/>
+      <c r="D364" s="3"/>
       <c r="E364" s="1"/>
       <c r="F364" s="1"/>
       <c r="G364" s="1"/>
     </row>
     <row r="365" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B365" s="3"/>
+      <c r="C365" s="3"/>
+      <c r="D365" s="3"/>
       <c r="E365" s="1"/>
       <c r="F365" s="1"/>
       <c r="G365" s="1"/>
     </row>
     <row r="366" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B366" s="3"/>
+      <c r="C366" s="3"/>
+      <c r="D366" s="3"/>
       <c r="E366" s="1"/>
       <c r="F366" s="1"/>
       <c r="G366" s="1"/>
     </row>
     <row r="367" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B367" s="3"/>
+      <c r="C367" s="3"/>
+      <c r="D367" s="3"/>
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
       <c r="G367" s="1"/>
     </row>
     <row r="368" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B368" s="1"/>
-      <c r="C368" s="1"/>
+      <c r="B368" s="3"/>
+      <c r="C368" s="3"/>
+      <c r="D368" s="3"/>
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
       <c r="G368" s="1"/>
     </row>
     <row r="369" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B369" s="1"/>
-      <c r="C369" s="1"/>
+      <c r="B369" s="3"/>
+      <c r="C369" s="3"/>
+      <c r="D369" s="3"/>
       <c r="E369" s="1"/>
       <c r="F369" s="1"/>
       <c r="G369" s="1"/>
     </row>
     <row r="370" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B370" s="1"/>
-      <c r="C370" s="1"/>
+      <c r="B370" s="3"/>
+      <c r="C370" s="3"/>
+      <c r="D370" s="3"/>
       <c r="E370" s="1"/>
       <c r="F370" s="1"/>
       <c r="G370" s="1"/>
     </row>
     <row r="371" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B371" s="1"/>
-      <c r="C371" s="1"/>
+      <c r="B371" s="3"/>
+      <c r="C371" s="3"/>
+      <c r="D371" s="3"/>
       <c r="E371" s="1"/>
       <c r="F371" s="1"/>
       <c r="G371" s="1"/>
     </row>
     <row r="372" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B372" s="3"/>
+      <c r="C372" s="3"/>
+      <c r="D372" s="3"/>
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
       <c r="G372" s="1"/>
     </row>
     <row r="373" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B373" s="3"/>
+      <c r="C373" s="3"/>
+      <c r="D373" s="3"/>
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
       <c r="G373" s="1"/>
     </row>
     <row r="374" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B374" s="3"/>
+      <c r="C374" s="3"/>
+      <c r="D374" s="3"/>
       <c r="E374" s="1"/>
       <c r="F374" s="1"/>
       <c r="G374" s="1"/>
     </row>
     <row r="375" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B375" s="3"/>
+      <c r="C375" s="3"/>
+      <c r="D375" s="3"/>
       <c r="E375" s="1"/>
       <c r="F375" s="1"/>
       <c r="G375" s="1"/>
     </row>
     <row r="376" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B376" s="3"/>
+      <c r="C376" s="3"/>
+      <c r="D376" s="3"/>
       <c r="E376" s="1"/>
       <c r="F376" s="1"/>
       <c r="G376" s="1"/>
     </row>
     <row r="377" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B377" s="3"/>
+      <c r="C377" s="3"/>
+      <c r="D377" s="3"/>
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
       <c r="G377" s="1"/>
     </row>
     <row r="378" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B378" s="3"/>
+      <c r="C378" s="3"/>
+      <c r="D378" s="3"/>
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
       <c r="G378" s="1"/>
     </row>
     <row r="379" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B379" s="3"/>
+      <c r="C379" s="3"/>
+      <c r="D379" s="3"/>
       <c r="E379" s="1"/>
       <c r="F379" s="1"/>
       <c r="G379" s="1"/>
     </row>
     <row r="380" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B380" s="3"/>
+      <c r="C380" s="3"/>
+      <c r="D380" s="3"/>
       <c r="E380" s="1"/>
       <c r="F380" s="1"/>
       <c r="G380" s="1"/>
     </row>
     <row r="381" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B381" s="3"/>
+      <c r="C381" s="3"/>
+      <c r="D381" s="3"/>
       <c r="E381" s="1"/>
       <c r="F381" s="1"/>
       <c r="G381" s="1"/>
     </row>
     <row r="382" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B382" s="3"/>
+      <c r="C382" s="3"/>
+      <c r="D382" s="3"/>
       <c r="E382" s="1"/>
       <c r="F382" s="1"/>
       <c r="G382" s="1"/>
     </row>
     <row r="383" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B383" s="3"/>
+      <c r="C383" s="3"/>
+      <c r="D383" s="3"/>
       <c r="E383" s="1"/>
       <c r="F383" s="1"/>
       <c r="G383" s="1"/>
     </row>
     <row r="384" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B384" s="3"/>
+      <c r="C384" s="3"/>
+      <c r="D384" s="3"/>
       <c r="E384" s="1"/>
       <c r="F384" s="1"/>
       <c r="G384" s="1"/>
     </row>
     <row r="385" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B385" s="3"/>
+      <c r="C385" s="3"/>
+      <c r="D385" s="3"/>
       <c r="E385" s="1"/>
       <c r="F385" s="1"/>
       <c r="G385" s="1"/>
     </row>
     <row r="386" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B386" s="3"/>
+      <c r="C386" s="3"/>
+      <c r="D386" s="3"/>
       <c r="E386" s="1"/>
       <c r="F386" s="1"/>
       <c r="G386" s="1"/>
     </row>
     <row r="387" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B387" s="2"/>
-      <c r="C387" s="2"/>
+      <c r="B387" s="3"/>
+      <c r="C387" s="3"/>
+      <c r="D387" s="3"/>
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
       <c r="G387" s="1"/>
     </row>
     <row r="388" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B388" s="2"/>
-      <c r="C388" s="2"/>
+      <c r="B388" s="3"/>
+      <c r="C388" s="3"/>
+      <c r="D388" s="3"/>
       <c r="E388" s="1"/>
       <c r="F388" s="1"/>
       <c r="G388" s="1"/>
     </row>
     <row r="389" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B389" s="2"/>
-      <c r="C389" s="2"/>
+      <c r="B389" s="3"/>
+      <c r="C389" s="3"/>
+      <c r="D389" s="3"/>
       <c r="E389" s="1"/>
       <c r="F389" s="1"/>
       <c r="G389" s="1"/>
     </row>
     <row r="390" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B390" s="2"/>
-      <c r="C390" s="2"/>
+      <c r="B390" s="3"/>
+      <c r="C390" s="3"/>
+      <c r="D390" s="3"/>
       <c r="E390" s="1"/>
       <c r="F390" s="1"/>
       <c r="G390" s="1"/>
     </row>
     <row r="391" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B391" s="2"/>
-      <c r="C391" s="2"/>
+      <c r="B391" s="3"/>
+      <c r="C391" s="3"/>
+      <c r="D391" s="3"/>
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
       <c r="G391" s="1"/>
     </row>
     <row r="392" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B392" s="2"/>
-      <c r="C392" s="2"/>
+      <c r="B392" s="3"/>
+      <c r="C392" s="3"/>
+      <c r="D392" s="3"/>
       <c r="E392" s="1"/>
       <c r="F392" s="1"/>
       <c r="G392" s="1"/>
     </row>
     <row r="393" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B393" s="2"/>
-      <c r="C393" s="2"/>
+      <c r="B393" s="3"/>
+      <c r="C393" s="3"/>
+      <c r="D393" s="3"/>
       <c r="E393" s="1"/>
       <c r="F393" s="1"/>
       <c r="G393" s="1"/>
     </row>
     <row r="394" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B394" s="2"/>
-      <c r="C394" s="2"/>
+      <c r="B394" s="3"/>
+      <c r="C394" s="3"/>
+      <c r="D394" s="3"/>
       <c r="E394" s="1"/>
       <c r="F394" s="1"/>
       <c r="G394" s="1"/>
     </row>
     <row r="395" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B395" s="2"/>
-      <c r="C395" s="2"/>
+      <c r="B395" s="3"/>
+      <c r="C395" s="3"/>
+      <c r="D395" s="3"/>
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
       <c r="G395" s="1"/>
     </row>
     <row r="396" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B396" s="2"/>
-      <c r="C396" s="2"/>
+      <c r="B396" s="3"/>
+      <c r="C396" s="3"/>
+      <c r="D396" s="3"/>
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
       <c r="G396" s="1"/>
     </row>
     <row r="397" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B397" s="2"/>
-      <c r="C397" s="2"/>
+      <c r="B397" s="3"/>
+      <c r="C397" s="3"/>
+      <c r="D397" s="3"/>
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
       <c r="G397" s="1"/>
     </row>
     <row r="398" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B398" s="2"/>
-      <c r="C398" s="2"/>
+      <c r="B398" s="3"/>
+      <c r="C398" s="3"/>
+      <c r="D398" s="3"/>
       <c r="E398" s="1"/>
       <c r="F398" s="1"/>
       <c r="G398" s="1"/>
     </row>
     <row r="399" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B399" s="2"/>
-      <c r="C399" s="2"/>
+      <c r="B399" s="3"/>
+      <c r="C399" s="3"/>
+      <c r="D399" s="3"/>
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
       <c r="G399" s="1"/>
     </row>
     <row r="400" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B400" s="2"/>
-      <c r="C400" s="2"/>
+      <c r="B400" s="3"/>
+      <c r="C400" s="3"/>
+      <c r="D400" s="3"/>
       <c r="E400" s="1"/>
       <c r="F400" s="1"/>
       <c r="G400" s="1"/>
     </row>
     <row r="401" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B401" s="2"/>
-      <c r="C401" s="2"/>
+      <c r="B401" s="3"/>
+      <c r="C401" s="3"/>
+      <c r="D401" s="3"/>
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
       <c r="G401" s="1"/>
     </row>
     <row r="402" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B402" s="2"/>
-      <c r="C402" s="2"/>
+      <c r="B402" s="3"/>
+      <c r="C402" s="3"/>
+      <c r="D402" s="5"/>
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
       <c r="G402" s="1"/>
     </row>
     <row r="403" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B403" s="2"/>
-      <c r="C403" s="2"/>
+      <c r="B403" s="3"/>
+      <c r="C403" s="3"/>
+      <c r="D403" s="3"/>
       <c r="E403" s="1"/>
       <c r="F403" s="1"/>
       <c r="G403" s="1"/>
     </row>
     <row r="404" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B404" s="2"/>
-      <c r="C404" s="2"/>
+      <c r="B404" s="3"/>
+      <c r="C404" s="3"/>
+      <c r="D404" s="3"/>
       <c r="E404" s="1"/>
       <c r="F404" s="1"/>
       <c r="G404" s="1"/>
     </row>
     <row r="405" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B405" s="2"/>
-      <c r="C405" s="2"/>
+      <c r="B405" s="3"/>
+      <c r="C405" s="3"/>
+      <c r="D405" s="3"/>
       <c r="E405" s="1"/>
       <c r="F405" s="1"/>
       <c r="G405" s="1"/>
     </row>
     <row r="406" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B406" s="2"/>
-      <c r="C406" s="2"/>
+      <c r="B406" s="3"/>
+      <c r="C406" s="3"/>
+      <c r="D406" s="3"/>
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
       <c r="G406" s="1"/>
     </row>
     <row r="407" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B407" s="2"/>
-      <c r="C407" s="2"/>
+      <c r="B407" s="3"/>
+      <c r="C407" s="3"/>
+      <c r="D407" s="3"/>
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
       <c r="G407" s="1"/>
     </row>
     <row r="408" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B408" s="2"/>
-      <c r="C408" s="2"/>
+      <c r="B408" s="3"/>
+      <c r="C408" s="3"/>
+      <c r="D408" s="3"/>
       <c r="E408" s="1"/>
       <c r="F408" s="1"/>
       <c r="G408" s="1"/>
     </row>
     <row r="409" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B409" s="2"/>
-      <c r="C409" s="2"/>
+      <c r="B409" s="3"/>
+      <c r="C409" s="3"/>
+      <c r="D409" s="3"/>
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
       <c r="G409" s="1"/>
     </row>
     <row r="410" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B410" s="2"/>
-      <c r="C410" s="2"/>
+      <c r="B410" s="3"/>
+      <c r="C410" s="3"/>
+      <c r="D410" s="3"/>
       <c r="E410" s="1"/>
       <c r="F410" s="1"/>
       <c r="G410" s="1"/>
     </row>
     <row r="411" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B411" s="2"/>
-      <c r="C411" s="2"/>
+      <c r="B411" s="3"/>
+      <c r="C411" s="3"/>
+      <c r="D411" s="3"/>
       <c r="E411" s="1"/>
       <c r="F411" s="1"/>
       <c r="G411" s="1"/>
     </row>
     <row r="412" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B412" s="2"/>
-      <c r="C412" s="2"/>
+      <c r="B412" s="3"/>
+      <c r="C412" s="3"/>
+      <c r="D412" s="3"/>
       <c r="E412" s="1"/>
       <c r="F412" s="1"/>
       <c r="G412" s="1"/>
     </row>
     <row r="413" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B413" s="2"/>
-      <c r="C413" s="2"/>
+      <c r="B413" s="3"/>
+      <c r="C413" s="3"/>
+      <c r="D413" s="3"/>
       <c r="E413" s="1"/>
       <c r="F413" s="1"/>
       <c r="G413" s="1"/>
     </row>
     <row r="414" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B414" s="2"/>
-      <c r="C414" s="2"/>
+      <c r="B414" s="3"/>
+      <c r="C414" s="3"/>
+      <c r="D414" s="3"/>
       <c r="E414" s="1"/>
       <c r="F414" s="1"/>
       <c r="G414" s="1"/>
     </row>
     <row r="415" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B415" s="2"/>
-      <c r="C415" s="2"/>
+      <c r="B415" s="3"/>
+      <c r="C415" s="3"/>
+      <c r="D415" s="3"/>
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
       <c r="G415" s="1"/>
     </row>
     <row r="416" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B416" s="2"/>
-      <c r="C416" s="2"/>
+      <c r="B416" s="3"/>
+      <c r="C416" s="3"/>
+      <c r="D416" s="3"/>
       <c r="E416" s="1"/>
       <c r="F416" s="1"/>
       <c r="G416" s="1"/>
     </row>
     <row r="417" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B417" s="2"/>
-      <c r="C417" s="2"/>
+      <c r="B417" s="3"/>
+      <c r="C417" s="3"/>
+      <c r="D417" s="3"/>
       <c r="E417" s="1"/>
       <c r="F417" s="1"/>
       <c r="G417" s="1"/>
+    </row>
+    <row r="418" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B418" s="3"/>
+      <c r="C418" s="3"/>
+      <c r="D418" s="3"/>
+    </row>
+    <row r="419" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B419" s="3"/>
+      <c r="C419" s="3"/>
+      <c r="D419" s="3"/>
+    </row>
+    <row r="420" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B420" s="3"/>
+      <c r="C420" s="3"/>
+      <c r="D420" s="3"/>
+    </row>
+    <row r="421" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B421" s="3"/>
+      <c r="C421" s="3"/>
+      <c r="D421" s="3"/>
+    </row>
+    <row r="422" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B422" s="3"/>
+      <c r="C422" s="3"/>
+      <c r="D422" s="3"/>
+    </row>
+    <row r="423" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B423" s="3"/>
+      <c r="C423" s="3"/>
+      <c r="D423" s="3"/>
+    </row>
+    <row r="424" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B424" s="3"/>
+      <c r="C424" s="3"/>
+      <c r="D424" s="3"/>
+    </row>
+    <row r="425" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B425" s="3"/>
+      <c r="C425" s="3"/>
+      <c r="D425" s="3"/>
+    </row>
+    <row r="426" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B426" s="3"/>
+      <c r="C426" s="3"/>
+      <c r="D426" s="3"/>
+    </row>
+    <row r="427" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B427" s="3"/>
+      <c r="C427" s="3"/>
+      <c r="D427" s="3"/>
+    </row>
+    <row r="428" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B428" s="3"/>
+      <c r="C428" s="3"/>
+      <c r="D428" s="3"/>
+    </row>
+    <row r="429" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B429" s="3"/>
+      <c r="C429" s="3"/>
+      <c r="D429" s="3"/>
+    </row>
+    <row r="430" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B430" s="3"/>
+      <c r="C430" s="3"/>
+      <c r="D430" s="3"/>
+    </row>
+    <row r="431" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B431" s="3"/>
+      <c r="C431" s="3"/>
+      <c r="D431" s="3"/>
+    </row>
+    <row r="432" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B432" s="3"/>
+      <c r="C432" s="3"/>
+      <c r="D432" s="3"/>
+    </row>
+    <row r="433" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B433" s="3"/>
+      <c r="C433" s="3"/>
+      <c r="D433" s="3"/>
+    </row>
+    <row r="434" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B434" s="3"/>
+      <c r="C434" s="3"/>
+      <c r="D434" s="3"/>
+    </row>
+    <row r="435" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B435" s="3"/>
+      <c r="C435" s="3"/>
+      <c r="D435" s="3"/>
+    </row>
+    <row r="436" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B436" s="3"/>
+      <c r="C436" s="3"/>
+      <c r="D436" s="3"/>
+    </row>
+    <row r="437" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B437" s="3"/>
+      <c r="C437" s="3"/>
+      <c r="D437" s="3"/>
+    </row>
+    <row r="438" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B438" s="3"/>
+      <c r="C438" s="3"/>
+      <c r="D438" s="3"/>
+    </row>
+    <row r="439" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B439" s="3"/>
+      <c r="C439" s="3"/>
+      <c r="D439" s="3"/>
+    </row>
+    <row r="440" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B440" s="3"/>
+      <c r="C440" s="3"/>
+      <c r="D440" s="3"/>
+    </row>
+    <row r="441" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B441" s="3"/>
+      <c r="C441" s="3"/>
+      <c r="D441" s="3"/>
+    </row>
+    <row r="442" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B442" s="3"/>
+      <c r="C442" s="3"/>
+      <c r="D442" s="3"/>
+    </row>
+    <row r="443" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B443" s="3"/>
+      <c r="C443" s="3"/>
+      <c r="D443" s="3"/>
+    </row>
+    <row r="444" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B444" s="3"/>
+      <c r="C444" s="3"/>
+      <c r="D444" s="3"/>
+    </row>
+    <row r="445" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B445" s="3"/>
+      <c r="C445" s="3"/>
+      <c r="D445" s="3"/>
+    </row>
+    <row r="446" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B446" s="3"/>
+      <c r="C446" s="3"/>
+      <c r="D446" s="3"/>
+    </row>
+    <row r="447" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B447" s="3"/>
+      <c r="C447" s="3"/>
+      <c r="D447" s="3"/>
+    </row>
+    <row r="448" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B448" s="3"/>
+      <c r="C448" s="3"/>
+      <c r="D448" s="3"/>
+    </row>
+    <row r="449" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B449" s="3"/>
+      <c r="C449" s="3"/>
+      <c r="D449" s="3"/>
+    </row>
+    <row r="450" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B450" s="3"/>
+      <c r="C450" s="3"/>
+      <c r="D450" s="3"/>
+    </row>
+    <row r="451" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B451" s="3"/>
+      <c r="C451" s="3"/>
+      <c r="D451" s="3"/>
+    </row>
+    <row r="452" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B452" s="3"/>
+      <c r="C452" s="3"/>
+      <c r="D452" s="3"/>
+    </row>
+    <row r="453" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B453" s="3"/>
+      <c r="C453" s="3"/>
+      <c r="D453" s="3"/>
+    </row>
+    <row r="454" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B454" s="3">
+        <v>40324</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D454" s="4">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="455" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B455" s="3">
+        <v>40193</v>
+      </c>
+      <c r="C455" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D455" s="4">
+        <v>45887</v>
+      </c>
+    </row>
+    <row r="456" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B456" s="3">
+        <v>20132</v>
+      </c>
+      <c r="C456" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D456" s="4">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="457" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B457" s="3">
+        <v>20554</v>
+      </c>
+      <c r="C457" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D457" s="4">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="458" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B458" s="3">
+        <v>20632</v>
+      </c>
+      <c r="C458" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D458" s="4">
+        <v>45887</v>
+      </c>
+    </row>
+    <row r="459" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B459" s="3">
+        <v>20621</v>
+      </c>
+      <c r="C459" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D459" s="4">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="460" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B460" s="3">
+        <v>20604</v>
+      </c>
+      <c r="C460" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D460" s="4">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="461" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B461" s="3">
+        <v>4314</v>
+      </c>
+      <c r="C461" s="3">
+        <v>2215004160</v>
+      </c>
+      <c r="D461" s="4">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="462" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B462" s="3">
+        <v>20326</v>
+      </c>
+      <c r="C462" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D462" s="4">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="463" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B463" s="3">
+        <v>4274</v>
+      </c>
+      <c r="C463" s="3">
+        <v>2215046253</v>
+      </c>
+      <c r="D463" s="4">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="464" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B464" s="3">
+        <v>10258</v>
+      </c>
+      <c r="C464" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D464" s="4">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="465" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B465" s="3">
+        <v>1466</v>
+      </c>
+      <c r="C465" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D465" s="4">
+        <v>45890</v>
+      </c>
+    </row>
+    <row r="466" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B466" s="3">
+        <v>2521</v>
+      </c>
+      <c r="C466" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D466" s="4">
+        <v>45890</v>
+      </c>
+    </row>
+    <row r="467" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B467" s="3">
+        <v>3398</v>
+      </c>
+      <c r="C467" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D467" s="4">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="468" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B468" s="3">
+        <v>3485</v>
+      </c>
+      <c r="C468" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D468" s="4">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="469" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B469" s="3">
+        <v>1355</v>
+      </c>
+      <c r="C469" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D469" s="4">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="470" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B470" s="3">
+        <v>1547</v>
+      </c>
+      <c r="C470" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D470" s="4">
+        <v>45890</v>
+      </c>
+    </row>
+    <row r="471" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B471" s="3">
+        <v>20640</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D471" s="4">
+        <v>45887</v>
+      </c>
+    </row>
+    <row r="472" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B472" s="5">
+        <v>120413</v>
+      </c>
+      <c r="C472" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D472" s="6">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="473" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B473" s="3">
+        <v>2062</v>
+      </c>
+      <c r="C473" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D473" s="4">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="474" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B474" s="3">
+        <v>120175</v>
+      </c>
+      <c r="C474" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D474" s="4">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="475" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B475" s="3">
+        <v>120391</v>
+      </c>
+      <c r="C475" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D475" s="4">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="476" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B476" s="3">
+        <v>1499</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D476" s="4">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="477" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B477" s="3">
+        <v>120279</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D477" s="4">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="478" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B478" s="3">
+        <v>120420</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D478" s="4">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="479" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B479" s="3">
+        <v>2008</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D479" s="4">
+        <v>45890</v>
+      </c>
+    </row>
+    <row r="480" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B480" s="3">
+        <v>120470</v>
+      </c>
+      <c r="C480" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D480" s="4">
+        <v>45890</v>
+      </c>
+    </row>
+    <row r="481" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B481" s="3">
+        <v>120495</v>
+      </c>
+      <c r="C481" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D481" s="4">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="482" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B482" s="3">
+        <v>120589</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D482" s="4">
+        <v>45890</v>
+      </c>
+    </row>
+    <row r="483" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B483" s="3">
+        <v>120587</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D483" s="4">
+        <v>45890</v>
+      </c>
+    </row>
+    <row r="484" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B484" s="3">
+        <v>78</v>
+      </c>
+      <c r="C484" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D484" s="4">
+        <v>45890</v>
+      </c>
+    </row>
+    <row r="485" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B485" s="3">
+        <v>73</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D485" s="4">
+        <v>45890</v>
+      </c>
+    </row>
+    <row r="486" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B486" s="3">
+        <v>63</v>
+      </c>
+      <c r="C486" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D486" s="4">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="487" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B487" s="3">
+        <v>3578</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D487" s="4">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="488" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B488" s="3">
+        <v>3572</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D488" s="4">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="489" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B489" s="5">
+        <v>218</v>
+      </c>
+      <c r="C489" s="5">
+        <v>2215003752</v>
+      </c>
+      <c r="D489" s="6">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="490" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B490" s="3">
+        <v>297</v>
+      </c>
+      <c r="C490" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D490" s="4">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="491" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B491" s="3">
+        <v>229</v>
+      </c>
+      <c r="C491" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D491" s="4">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="492" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B492" s="3">
+        <v>1604</v>
+      </c>
+      <c r="C492" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D492" s="4">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="493" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B493" s="3">
+        <v>4445</v>
+      </c>
+      <c r="C493" s="3">
+        <v>2215004541</v>
+      </c>
+      <c r="D493" s="4">
+        <v>45896</v>
+      </c>
+    </row>
+    <row r="494" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B494" s="3">
+        <v>2588</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D494" s="4">
+        <v>45896</v>
+      </c>
+    </row>
+    <row r="495" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B495" s="3">
+        <v>4319</v>
+      </c>
+      <c r="C495" s="3">
+        <v>2215004150</v>
+      </c>
+      <c r="D495" s="4">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="496" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B496" s="3">
+        <v>10379</v>
+      </c>
+      <c r="C496" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D496" s="4">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="497" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B497" s="3">
+        <v>120084</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D497" s="4">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="498" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B498" s="3">
+        <v>11043</v>
+      </c>
+      <c r="C498" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D498" s="4">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="499" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B499" s="3">
+        <v>4303</v>
+      </c>
+      <c r="C499" s="3">
+        <v>2215004588</v>
+      </c>
+      <c r="D499" s="4">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="500" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B500" s="3">
+        <v>10647</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D500" s="4">
+        <v>45896</v>
+      </c>
+    </row>
+    <row r="501" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B501" s="3">
+        <v>10349</v>
+      </c>
+      <c r="C501" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D501" s="4">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="502" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B502" s="3">
+        <v>10950</v>
+      </c>
+      <c r="C502" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D502" s="4">
+        <v>45896</v>
+      </c>
+    </row>
+    <row r="503" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B503" s="3">
+        <v>10120</v>
+      </c>
+      <c r="C503" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D503" s="4">
+        <v>45896</v>
+      </c>
+    </row>
+    <row r="504" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B504" s="3">
+        <v>120098</v>
+      </c>
+      <c r="C504" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D504" s="4">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="505" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B505" s="3">
+        <v>60045</v>
+      </c>
+      <c r="C505" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D505" s="4">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="506" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B506" s="3">
+        <v>10836</v>
+      </c>
+      <c r="C506" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D506" s="4">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="507" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B507" s="3">
+        <v>4765</v>
+      </c>
+      <c r="C507" s="3">
+        <v>2381361924</v>
+      </c>
+      <c r="D507" s="4">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="508" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B508" s="3">
+        <v>3506</v>
+      </c>
+      <c r="C508" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D508" s="4">
+        <v>45895</v>
+      </c>
+    </row>
+    <row r="509" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B509" s="3">
+        <v>11172</v>
+      </c>
+      <c r="C509" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D509" s="4">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="510" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B510" s="3">
+        <v>10917</v>
+      </c>
+      <c r="C510" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D510" s="4">
+        <v>45896</v>
+      </c>
+    </row>
+    <row r="511" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B511" s="3">
+        <v>20490</v>
+      </c>
+      <c r="C511" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D511" s="4">
+        <v>45896</v>
+      </c>
+    </row>
+    <row r="512" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B512" s="3">
+        <v>10910</v>
+      </c>
+      <c r="C512" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D512" s="4">
+        <v>45896</v>
+      </c>
+    </row>
+    <row r="513" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B513" s="3">
+        <v>3418</v>
+      </c>
+      <c r="C513" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D513" s="4">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="514" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B514" s="3">
+        <v>50145</v>
+      </c>
+      <c r="C514" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D514" s="4">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="515" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B515" s="3"/>
+      <c r="C515" s="3"/>
+      <c r="D515" s="3"/>
+    </row>
+    <row r="516" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B516" s="3"/>
+      <c r="C516" s="3"/>
+      <c r="D516" s="3"/>
+    </row>
+    <row r="517" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B517" s="3"/>
+      <c r="C517" s="3"/>
+      <c r="D517" s="3"/>
+    </row>
+    <row r="518" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B518" s="3"/>
+      <c r="C518" s="3"/>
+      <c r="D518" s="3"/>
+    </row>
+    <row r="519" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B519" s="3"/>
+      <c r="C519" s="3"/>
+      <c r="D519" s="3"/>
+    </row>
+    <row r="520" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B520" s="3"/>
+      <c r="C520" s="3"/>
+      <c r="D520" s="3"/>
+    </row>
+    <row r="521" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B521" s="3"/>
+      <c r="C521" s="3"/>
+      <c r="D521" s="3"/>
+    </row>
+    <row r="522" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B522" s="3"/>
+      <c r="C522" s="3"/>
+      <c r="D522" s="3"/>
+    </row>
+    <row r="523" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B523" s="3"/>
+      <c r="C523" s="3"/>
+      <c r="D523" s="3"/>
+    </row>
+    <row r="524" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B524" s="3"/>
+      <c r="C524" s="3"/>
+      <c r="D524" s="3"/>
+    </row>
+    <row r="525" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B525" s="3"/>
+      <c r="C525" s="3"/>
+      <c r="D525" s="3"/>
+    </row>
+    <row r="526" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B526" s="3"/>
+      <c r="C526" s="3"/>
+      <c r="D526" s="3"/>
+    </row>
+    <row r="527" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B527" s="3"/>
+      <c r="C527" s="3"/>
+      <c r="D527" s="3"/>
+    </row>
+    <row r="528" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B528" s="3"/>
+      <c r="C528" s="3"/>
+      <c r="D528" s="3"/>
+    </row>
+    <row r="529" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B529" s="3"/>
+      <c r="C529" s="3"/>
+      <c r="D529" s="3"/>
+    </row>
+    <row r="530" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B530" s="3"/>
+      <c r="C530" s="3"/>
+      <c r="D530" s="3"/>
+    </row>
+    <row r="531" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B531" s="3"/>
+      <c r="C531" s="3"/>
+      <c r="D531" s="3"/>
+    </row>
+    <row r="532" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B532" s="3"/>
+      <c r="C532" s="3"/>
+      <c r="D532" s="3"/>
+    </row>
+    <row r="533" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B533" s="3"/>
+      <c r="C533" s="3"/>
+      <c r="D533" s="3"/>
+    </row>
+    <row r="534" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B534" s="3"/>
+      <c r="C534" s="3"/>
+      <c r="D534" s="3"/>
+    </row>
+    <row r="535" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B535" s="3"/>
+      <c r="C535" s="3"/>
+      <c r="D535" s="3"/>
+    </row>
+    <row r="536" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B536" s="3"/>
+      <c r="C536" s="3"/>
+      <c r="D536" s="3"/>
+    </row>
+    <row r="537" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B537" s="3"/>
+      <c r="C537" s="3"/>
+      <c r="D537" s="3"/>
+    </row>
+    <row r="538" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B538" s="3"/>
+      <c r="C538" s="3"/>
+      <c r="D538" s="3"/>
+    </row>
+    <row r="539" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B539" s="3"/>
+      <c r="C539" s="3"/>
+      <c r="D539" s="3"/>
+    </row>
+    <row r="540" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B540" s="3">
+        <v>3245</v>
+      </c>
+      <c r="C540" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D540" s="4">
+        <v>45896</v>
+      </c>
+    </row>
+    <row r="541" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B541" s="3">
+        <v>50175</v>
+      </c>
+      <c r="C541" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D541" s="4">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="542" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B542" s="3">
+        <v>2083</v>
+      </c>
+      <c r="C542" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D542" s="4">
+        <v>45896</v>
+      </c>
+    </row>
+    <row r="543" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B543" s="3">
+        <v>2271</v>
+      </c>
+      <c r="C543" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D543" s="4">
+        <v>45896</v>
+      </c>
+    </row>
+    <row r="544" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B544" s="3">
+        <v>3618</v>
+      </c>
+      <c r="C544" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D544" s="4">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="545" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B545" s="3">
+        <v>50223</v>
+      </c>
+      <c r="C545" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D545" s="4">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="546" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B546" s="3">
+        <v>70048</v>
+      </c>
+      <c r="C546" s="3">
+        <v>2381364245</v>
+      </c>
+      <c r="D546" s="4">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="547" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B547" s="3">
+        <v>70012</v>
+      </c>
+      <c r="C547" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D547" s="4">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="548" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B548" s="3">
+        <v>110027</v>
+      </c>
+      <c r="C548" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D548" s="4">
+        <v>45897</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D237">

--- a/reconexiones.xlsx
+++ b/reconexiones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JEFFERSON\Downloads\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90648A73-ABFC-4C87-BA69-E302E3F6A79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47362589-C625-47A9-ACA0-B78279DA3687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FEC1CEFE-428D-4480-B2C8-DD51C6A5E488}"/>
   </bookViews>
@@ -141,12 +141,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -161,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -169,10 +175,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -491,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F63DEF-8F3C-46F7-9343-804CE782A2A1}">
   <dimension ref="A1:G550"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -521,13 +530,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>11160</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>45876</v>
       </c>
       <c r="E2" s="1"/>
@@ -536,13 +545,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>10527</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>45876</v>
       </c>
       <c r="E3" s="1"/>
@@ -551,13 +560,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>10831</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>45876</v>
       </c>
       <c r="E4" s="1"/>
@@ -566,13 +575,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>50260</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>45876</v>
       </c>
       <c r="E5" s="1"/>
@@ -581,13 +590,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>1180</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1408013656</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>45882</v>
       </c>
       <c r="E6" s="1"/>
@@ -596,13 +605,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>20062</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>45890</v>
       </c>
       <c r="E7" s="1"/>
@@ -611,13 +620,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>120370</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>45891</v>
       </c>
       <c r="E8" s="1"/>
@@ -626,13 +635,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>67</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>45889</v>
       </c>
       <c r="E9" s="1"/>
@@ -641,13 +650,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>3482</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>45885</v>
       </c>
       <c r="E10" s="1"/>
@@ -656,13 +665,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>19695</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>45885</v>
       </c>
       <c r="E11" s="1"/>
@@ -671,13 +680,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>40383</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>45885</v>
       </c>
       <c r="E12" s="1"/>
@@ -686,13 +695,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>1243</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>17005273</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>45885</v>
       </c>
       <c r="E13" s="1"/>
@@ -701,13 +710,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>1259</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>17005583</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>45885</v>
       </c>
       <c r="E14" s="1"/>
@@ -716,13 +725,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>1029</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>17005867</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>45885</v>
       </c>
       <c r="E15" s="1"/>
@@ -731,13 +740,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>3237</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>45885</v>
       </c>
       <c r="E16" s="1"/>
@@ -746,13 +755,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>3900</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>2215004304</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>45885</v>
       </c>
       <c r="E17" s="1"/>
@@ -761,13 +770,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>3659</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>45887</v>
       </c>
       <c r="E18" s="1"/>
@@ -775,13 +784,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>20509</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>2381361930</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>45887</v>
       </c>
       <c r="E19" s="1"/>
@@ -789,13 +798,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>1499</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="5">
         <v>45891</v>
       </c>
       <c r="E20" s="1"/>
@@ -803,13 +812,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>3977</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>2215003920</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>45884</v>
       </c>
       <c r="E21" s="1"/>
@@ -817,13 +826,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>1385</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>45897</v>
       </c>
       <c r="E22" s="1"/>
@@ -831,13 +840,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>3253</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>45897</v>
       </c>
       <c r="E23" s="1"/>
@@ -845,13 +854,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>10612</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>45895</v>
       </c>
       <c r="E24" s="1"/>
@@ -859,13 +868,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>50206</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>45895</v>
       </c>
       <c r="E25" s="1"/>
@@ -873,13 +882,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>4319</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>2215004150</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>45895</v>
       </c>
       <c r="E26" s="1"/>
@@ -887,13 +896,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>547</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>45895</v>
       </c>
       <c r="E27" s="1"/>
@@ -901,13 +910,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>50209</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>45896</v>
       </c>
       <c r="E28" s="1"/>
@@ -915,13 +924,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>50205</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>45896</v>
       </c>
       <c r="E29" s="1"/>
@@ -929,13 +938,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>2725</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>45894</v>
       </c>
       <c r="E30" s="1"/>
@@ -943,13 +952,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>815</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>45890</v>
       </c>
       <c r="E31" s="1"/>
@@ -957,13 +966,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>110024</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>45890</v>
       </c>
       <c r="E32" s="1"/>
@@ -971,13 +980,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>3610</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>45890</v>
       </c>
       <c r="E33" s="1"/>
@@ -985,13 +994,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>3466</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>45890</v>
       </c>
       <c r="E34" s="1"/>
@@ -999,13 +1008,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>30407</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>45890</v>
       </c>
       <c r="E35" s="1"/>
@@ -1013,13 +1022,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>50296</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>45890</v>
       </c>
       <c r="E36" s="1"/>
@@ -1027,13 +1036,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>297</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>45889</v>
       </c>
       <c r="E37" s="1"/>
@@ -1041,13 +1050,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>892</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>17006160</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>45889</v>
       </c>
       <c r="E38" s="1"/>
